--- a/通用表格(2).xlsx
+++ b/通用表格(2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GIT储存库\PLC-mitsubishielectric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F0BB3C-E116-43AB-AC76-DBD1C01A61BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06703973-717E-4B5C-928E-D8E10B8EB301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="1440">
   <si>
     <t>M200</t>
   </si>
@@ -778,9 +778,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 6.中间试漏再投入Y1轴取料点</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.暂留3</t>
   </si>
   <si>
     <t>D200</t>
@@ -4324,6 +4321,42 @@
   </si>
   <si>
     <t>14.缓存放空捞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.Z1 缓存空捞位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 Z1缓存空捞点wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 Z1缓存空捞点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.缓冲取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.缓冲放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X轴伺服 14.中间试漏下料Z2轴放料点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1伺服 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1伺服 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1伺服 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4331,7 +4364,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4349,14 +4382,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -4458,7 +4483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4470,6 +4495,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4483,34 +4529,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4782,8 +4804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="I413" workbookViewId="0">
+      <selection activeCell="N429" sqref="N429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4796,21 +4818,21 @@
     <col min="6" max="7" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="15.75" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="12" max="12" width="38.125" customWidth="1"/>
-    <col min="13" max="13" width="45.125" customWidth="1"/>
+    <col min="12" max="12" width="38.125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="45.125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="4">
+      <c r="A1" s="11">
         <v>224</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
       <c r="H1" t="s">
         <v>0</v>
       </c>
@@ -4869,19 +4891,19 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -4910,19 +4932,19 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -4951,20 +4973,20 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="6" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>1411</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>1412</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>25</v>
@@ -4992,19 +5014,19 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -5033,19 +5055,19 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -5068,19 +5090,19 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -5103,19 +5125,19 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="6" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="1"/>
@@ -5128,19 +5150,19 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F10" s="1"/>
@@ -5162,19 +5184,19 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="6" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F11" s="1"/>
@@ -5187,19 +5209,19 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="6" t="s">
         <v>76</v>
       </c>
       <c r="F12" s="1"/>
@@ -5221,19 +5243,19 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="6" t="s">
         <v>84</v>
       </c>
       <c r="F13" s="1"/>
@@ -5246,19 +5268,19 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="1"/>
@@ -5280,19 +5302,19 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="6" t="s">
         <v>101</v>
       </c>
       <c r="F15" s="1"/>
@@ -5305,19 +5327,19 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="6" t="s">
         <v>108</v>
       </c>
       <c r="F16" s="1"/>
@@ -5339,17 +5361,17 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
@@ -5360,17 +5382,17 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
@@ -5390,17 +5412,17 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="C19" s="6" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
@@ -5411,17 +5433,17 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="6" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
@@ -5441,17 +5463,17 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
@@ -5465,17 +5487,17 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
@@ -5498,17 +5520,17 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
@@ -5522,17 +5544,17 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
@@ -5555,17 +5577,17 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
@@ -5576,17 +5598,17 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
@@ -5603,17 +5625,17 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
@@ -5624,17 +5646,17 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
@@ -5651,17 +5673,17 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
@@ -5742,13 +5764,13 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="A34" s="11">
         <v>222</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
       <c r="H34" t="s">
         <v>210</v>
       </c>
@@ -5763,19 +5785,19 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H35" t="s">
@@ -5789,19 +5811,19 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H36" t="s">
@@ -5818,20 +5840,20 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>221</v>
+      <c r="E37" s="4" t="s">
+        <v>1434</v>
       </c>
       <c r="H37" t="s">
         <v>223</v>
@@ -5844,19 +5866,19 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="6" t="s">
         <v>230</v>
       </c>
       <c r="H38" t="s">
@@ -5873,19 +5895,19 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="6" t="s">
         <v>238</v>
       </c>
       <c r="H39" t="s">
@@ -5896,19 +5918,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="6" t="s">
         <v>245</v>
       </c>
       <c r="H40" t="s">
@@ -5919,294 +5941,300 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" t="s">
         <v>253</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>254</v>
       </c>
-      <c r="H41" t="s">
+      <c r="K41" t="s">
         <v>255</v>
       </c>
-      <c r="K41" t="s">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="13" t="s">
+      <c r="B42" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="C42" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="D42" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="E42" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="F42" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="H42" t="s">
         <v>262</v>
       </c>
-      <c r="H42" t="s">
+      <c r="K42" t="s">
         <v>263</v>
       </c>
-      <c r="K42" t="s">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="13" t="s">
+      <c r="B43" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="C43" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="D43" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="2" t="s">
+      <c r="G43" t="s">
         <v>268</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>269</v>
       </c>
-      <c r="H43" t="s">
+      <c r="K43" t="s">
         <v>270</v>
       </c>
-      <c r="K43" t="s">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="13" t="s">
+      <c r="B44" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="C44" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="2" t="s">
+      <c r="H44" t="s">
         <v>275</v>
       </c>
-      <c r="H44" t="s">
+      <c r="K44" t="s">
         <v>276</v>
       </c>
-      <c r="K44" t="s">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45" s="6" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="13" t="s">
+      <c r="B45" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="C45" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="2" t="s">
+      <c r="G45" t="s">
         <v>281</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>282</v>
       </c>
-      <c r="H45" t="s">
+      <c r="K45" t="s">
         <v>283</v>
       </c>
-      <c r="K45" t="s">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="13" t="s">
+      <c r="B46" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="C46" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="H46" t="s">
+        <v>287</v>
+      </c>
+      <c r="K46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>1409</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H46" t="s">
-        <v>288</v>
-      </c>
-      <c r="K46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="B47" s="13" t="s">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="2" t="s">
+      <c r="G47" t="s">
         <v>292</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>293</v>
       </c>
-      <c r="H47" t="s">
+      <c r="K47" t="s">
         <v>294</v>
       </c>
-      <c r="K47" t="s">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="13" t="s">
+      <c r="B48" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="C48" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="2" t="s">
+      <c r="H48" t="s">
         <v>299</v>
       </c>
-      <c r="H48" t="s">
+      <c r="K48" t="s">
         <v>300</v>
       </c>
-      <c r="K48" t="s">
-        <v>301</v>
-      </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A49" s="12" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="8" t="s">
-        <v>1431</v>
+      <c r="A49" s="16" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>1430</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G49" t="s">
         <v>302</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>303</v>
       </c>
-      <c r="H49" t="s">
+      <c r="K49" t="s">
         <v>304</v>
       </c>
-      <c r="K49" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A50" s="12" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B50" s="10"/>
+      <c r="A50" s="16" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>1405</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H50" t="s">
         <v>306</v>
       </c>
-      <c r="H50" t="s">
+      <c r="K50" t="s">
         <v>307</v>
       </c>
-      <c r="K50" t="s">
-        <v>308</v>
-      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A51" s="9" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B51" s="11"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="4" t="s">
+        <v>1406</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G51" t="s">
         <v>309</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>310</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>311</v>
       </c>
-      <c r="I51" t="s">
+      <c r="K51" t="s">
         <v>312</v>
       </c>
-      <c r="K51" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A52" s="9" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B52" s="8"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="4" t="s">
+        <v>1407</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H52" t="s">
         <v>314</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>315</v>
       </c>
-      <c r="I52" t="s">
+      <c r="K52" t="s">
         <v>316</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>317</v>
       </c>
-      <c r="L52" t="s">
-        <v>318</v>
-      </c>
       <c r="M52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
@@ -6216,63 +6244,63 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G53" t="s">
         <v>319</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>320</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>321</v>
       </c>
-      <c r="I53" t="s">
+      <c r="K53" t="s">
         <v>322</v>
-      </c>
-      <c r="K53" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F54" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H54" t="s">
         <v>324</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>325</v>
       </c>
-      <c r="I54" t="s">
+      <c r="K54" t="s">
         <v>326</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>327</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>328</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>329</v>
       </c>
-      <c r="N54" t="s">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A55" s="14">
+        <v>223</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A55" s="7">
-        <v>223</v>
-      </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="2" t="s">
+      <c r="H55" t="s">
         <v>331</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>332</v>
       </c>
-      <c r="I55" t="s">
+      <c r="K55" t="s">
         <v>333</v>
-      </c>
-      <c r="K55" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
@@ -6292,4175 +6320,4187 @@
         <v>6</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H56" t="s">
         <v>335</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>336</v>
       </c>
-      <c r="I56" t="s">
+      <c r="K56" t="s">
         <v>337</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>338</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>339</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>340</v>
       </c>
-      <c r="N56" t="s">
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="H57" t="s">
         <v>342</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>343</v>
       </c>
-      <c r="I57" t="s">
+      <c r="K57" t="s">
         <v>344</v>
       </c>
-      <c r="K57" t="s">
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A58" s="7" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A58" s="14" t="s">
+      <c r="B58" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="C58" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="E58" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="F58" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="H58" t="s">
         <v>349</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>350</v>
       </c>
-      <c r="I58" t="s">
+      <c r="K58" t="s">
         <v>351</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>352</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>353</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>354</v>
       </c>
-      <c r="N58" t="s">
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A59" s="6" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A59" s="13" t="s">
+      <c r="B59" s="9" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="D59" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>1419</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D59" s="17" t="s">
+      <c r="F59" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="G59" t="s">
+        <v>359</v>
+      </c>
+      <c r="H59" t="s">
+        <v>360</v>
+      </c>
+      <c r="I59" t="s">
+        <v>361</v>
+      </c>
+      <c r="K59" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A60" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H60" t="s">
+        <v>369</v>
+      </c>
+      <c r="I60" t="s">
+        <v>370</v>
+      </c>
+      <c r="K60" t="s">
+        <v>371</v>
+      </c>
+      <c r="L60" t="s">
+        <v>372</v>
+      </c>
+      <c r="M60" t="s">
+        <v>373</v>
+      </c>
+      <c r="N60" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A61" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>1420</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G59" t="s">
-        <v>360</v>
-      </c>
-      <c r="H59" t="s">
-        <v>361</v>
-      </c>
-      <c r="I59" t="s">
-        <v>362</v>
-      </c>
-      <c r="K59" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A60" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="H60" t="s">
-        <v>370</v>
-      </c>
-      <c r="I60" t="s">
-        <v>371</v>
-      </c>
-      <c r="K60" t="s">
-        <v>372</v>
-      </c>
-      <c r="L60" t="s">
-        <v>373</v>
-      </c>
-      <c r="M60" t="s">
-        <v>374</v>
-      </c>
-      <c r="N60" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A61" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="B61" s="16" t="s">
+      <c r="D61" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="E61" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G61" t="s">
+        <v>380</v>
+      </c>
+      <c r="H61" t="s">
+        <v>381</v>
+      </c>
+      <c r="I61" t="s">
+        <v>382</v>
+      </c>
+      <c r="K61" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A62" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H62" t="s">
+        <v>390</v>
+      </c>
+      <c r="I62" t="s">
+        <v>391</v>
+      </c>
+      <c r="K62" t="s">
+        <v>392</v>
+      </c>
+      <c r="L62" t="s">
+        <v>393</v>
+      </c>
+      <c r="M62" t="s">
+        <v>394</v>
+      </c>
+      <c r="N62" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A63" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G63" t="s">
+        <v>402</v>
+      </c>
+      <c r="H63" t="s">
+        <v>403</v>
+      </c>
+      <c r="I63" t="s">
+        <v>404</v>
+      </c>
+      <c r="K63" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A64" s="6" t="s">
         <v>1421</v>
       </c>
-      <c r="D61" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G61" t="s">
-        <v>381</v>
-      </c>
-      <c r="H61" t="s">
-        <v>382</v>
-      </c>
-      <c r="I61" t="s">
-        <v>383</v>
-      </c>
-      <c r="K61" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A62" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="H62" t="s">
-        <v>391</v>
-      </c>
-      <c r="I62" t="s">
-        <v>392</v>
-      </c>
-      <c r="K62" t="s">
-        <v>393</v>
-      </c>
-      <c r="L62" t="s">
-        <v>394</v>
-      </c>
-      <c r="M62" t="s">
-        <v>395</v>
-      </c>
-      <c r="N62" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A63" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="G63" t="s">
-        <v>403</v>
-      </c>
-      <c r="H63" t="s">
-        <v>404</v>
-      </c>
-      <c r="I63" t="s">
-        <v>405</v>
-      </c>
-      <c r="K63" t="s">
+      <c r="B64" s="8" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A64" s="13" t="s">
+      <c r="C64" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>1422</v>
       </c>
-      <c r="B64" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="C64" s="13" t="s">
+      <c r="E64" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="F64" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H64" t="s">
+        <v>410</v>
+      </c>
+      <c r="I64" t="s">
+        <v>411</v>
+      </c>
+      <c r="K64" t="s">
+        <v>412</v>
+      </c>
+      <c r="L64" t="s">
+        <v>413</v>
+      </c>
+      <c r="M64" t="s">
+        <v>414</v>
+      </c>
+      <c r="N64" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A65" s="6" t="s">
         <v>1423</v>
       </c>
-      <c r="E64" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="H64" t="s">
-        <v>411</v>
-      </c>
-      <c r="I64" t="s">
-        <v>412</v>
-      </c>
-      <c r="K64" t="s">
-        <v>413</v>
-      </c>
-      <c r="L64" t="s">
-        <v>414</v>
-      </c>
-      <c r="M64" t="s">
-        <v>415</v>
-      </c>
-      <c r="N64" t="s">
+      <c r="B65" s="8" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A65" s="13" t="s">
+      <c r="C65" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>1424</v>
       </c>
-      <c r="B65" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="C65" s="13" t="s">
+      <c r="E65" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="F65" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G65" t="s">
+        <v>420</v>
+      </c>
+      <c r="H65" t="s">
+        <v>421</v>
+      </c>
+      <c r="I65" t="s">
+        <v>422</v>
+      </c>
+      <c r="K65" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A66" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H66" t="s">
+        <v>430</v>
+      </c>
+      <c r="I66" t="s">
+        <v>431</v>
+      </c>
+      <c r="K66" t="s">
+        <v>432</v>
+      </c>
+      <c r="L66" t="s">
+        <v>433</v>
+      </c>
+      <c r="M66" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A67" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G67" t="s">
+        <v>439</v>
+      </c>
+      <c r="H67" t="s">
+        <v>440</v>
+      </c>
+      <c r="I67" t="s">
+        <v>441</v>
+      </c>
+      <c r="K67" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A68" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>1425</v>
       </c>
-      <c r="E65" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="G65" t="s">
-        <v>421</v>
-      </c>
-      <c r="H65" t="s">
-        <v>422</v>
-      </c>
-      <c r="I65" t="s">
-        <v>423</v>
-      </c>
-      <c r="K65" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A66" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="H66" t="s">
-        <v>431</v>
-      </c>
-      <c r="I66" t="s">
-        <v>432</v>
-      </c>
-      <c r="K66" t="s">
-        <v>433</v>
-      </c>
-      <c r="L66" t="s">
-        <v>434</v>
-      </c>
-      <c r="M66" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A67" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="G67" t="s">
-        <v>440</v>
-      </c>
-      <c r="H67" t="s">
-        <v>441</v>
-      </c>
-      <c r="I67" t="s">
-        <v>442</v>
-      </c>
-      <c r="K67" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A68" s="13" t="s">
+      <c r="C68" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="D68" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H68" t="s">
+        <v>448</v>
+      </c>
+      <c r="I68" t="s">
+        <v>449</v>
+      </c>
+      <c r="K68" t="s">
+        <v>450</v>
+      </c>
+      <c r="L68" t="s">
+        <v>451</v>
+      </c>
+      <c r="M68" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A69" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G69" t="s">
+        <v>457</v>
+      </c>
+      <c r="H69" t="s">
+        <v>458</v>
+      </c>
+      <c r="I69" t="s">
+        <v>459</v>
+      </c>
+      <c r="K69" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A70" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>1426</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="H68" t="s">
-        <v>449</v>
-      </c>
-      <c r="I68" t="s">
-        <v>450</v>
-      </c>
-      <c r="K68" t="s">
-        <v>451</v>
-      </c>
-      <c r="L68" t="s">
-        <v>452</v>
-      </c>
-      <c r="M68" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A69" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="G69" t="s">
-        <v>458</v>
-      </c>
-      <c r="H69" t="s">
-        <v>459</v>
-      </c>
-      <c r="I69" t="s">
-        <v>460</v>
-      </c>
-      <c r="K69" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A70" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="B70" s="15" t="s">
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="H70" t="s">
+        <v>464</v>
+      </c>
+      <c r="I70" t="s">
+        <v>465</v>
+      </c>
+      <c r="K70" t="s">
+        <v>466</v>
+      </c>
+      <c r="L70" t="s">
+        <v>467</v>
+      </c>
+      <c r="M70" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A71" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G71" t="s">
+        <v>473</v>
+      </c>
+      <c r="H71" t="s">
+        <v>474</v>
+      </c>
+      <c r="I71" t="s">
+        <v>475</v>
+      </c>
+      <c r="K71" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A72" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>1427</v>
       </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="H70" t="s">
-        <v>465</v>
-      </c>
-      <c r="I70" t="s">
-        <v>466</v>
-      </c>
-      <c r="K70" t="s">
-        <v>467</v>
-      </c>
-      <c r="L70" t="s">
-        <v>468</v>
-      </c>
-      <c r="M70" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A71" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="G71" t="s">
-        <v>474</v>
-      </c>
-      <c r="H71" t="s">
-        <v>475</v>
-      </c>
-      <c r="I71" t="s">
-        <v>476</v>
-      </c>
-      <c r="K71" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A72" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="B72" s="15" t="s">
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="H72" t="s">
+        <v>480</v>
+      </c>
+      <c r="K72" t="s">
+        <v>481</v>
+      </c>
+      <c r="L72" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A73" s="6" t="s">
         <v>1428</v>
       </c>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="H72" t="s">
-        <v>481</v>
-      </c>
-      <c r="K72" t="s">
-        <v>482</v>
-      </c>
-      <c r="L72" t="s">
+      <c r="B73" s="8" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A73" s="13" t="s">
+      <c r="C73" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G73" t="s">
+        <v>486</v>
+      </c>
+      <c r="H73" t="s">
+        <v>487</v>
+      </c>
+      <c r="K73" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A74" s="6" t="s">
         <v>1429</v>
       </c>
-      <c r="B73" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="G73" t="s">
-        <v>487</v>
-      </c>
-      <c r="H73" t="s">
-        <v>488</v>
-      </c>
-      <c r="K73" t="s">
+      <c r="B74" s="8" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A74" s="13" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B74" s="15" t="s">
+      <c r="C74" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="H74" t="s">
         <v>491</v>
       </c>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="H74" t="s">
+      <c r="K74" t="s">
         <v>492</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>493</v>
       </c>
-      <c r="L74" t="s">
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A75" s="6" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A75" s="13" t="s">
+      <c r="B75" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="C75" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="H75" t="s">
         <v>497</v>
       </c>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="H75" t="s">
+      <c r="K75" t="s">
         <v>498</v>
-      </c>
-      <c r="K75" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H76" t="s">
+        <v>499</v>
+      </c>
+      <c r="K76" t="s">
         <v>500</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>501</v>
-      </c>
-      <c r="L76" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
+        <v>445</v>
+      </c>
+      <c r="B77" t="s">
         <v>446</v>
       </c>
-      <c r="B77" t="s">
-        <v>447</v>
-      </c>
       <c r="C77" t="s">
+        <v>502</v>
+      </c>
+      <c r="H77" t="s">
         <v>503</v>
       </c>
-      <c r="H77" t="s">
+      <c r="K77" t="s">
         <v>504</v>
-      </c>
-      <c r="K77" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
+        <v>505</v>
+      </c>
+      <c r="B78" t="s">
         <v>506</v>
       </c>
-      <c r="B78" t="s">
+      <c r="H78" t="s">
         <v>507</v>
       </c>
-      <c r="H78" t="s">
+      <c r="K78" t="s">
         <v>508</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>509</v>
-      </c>
-      <c r="L78" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H79" t="s">
+        <v>510</v>
+      </c>
+      <c r="K79" t="s">
         <v>511</v>
-      </c>
-      <c r="K79" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
+        <v>512</v>
+      </c>
+      <c r="B80" t="s">
+        <v>512</v>
+      </c>
+      <c r="H80" t="s">
         <v>513</v>
       </c>
-      <c r="B80" t="s">
-        <v>513</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="K80" t="s">
         <v>514</v>
-      </c>
-      <c r="K80" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="81" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F81" s="3"/>
       <c r="H81" t="s">
+        <v>515</v>
+      </c>
+      <c r="I81" t="s">
         <v>516</v>
       </c>
-      <c r="I81" t="s">
+      <c r="K81" t="s">
         <v>517</v>
-      </c>
-      <c r="K81" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="82" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F82" s="3"/>
       <c r="H82" t="s">
+        <v>518</v>
+      </c>
+      <c r="I82" t="s">
         <v>519</v>
       </c>
-      <c r="I82" t="s">
+      <c r="K82" t="s">
         <v>520</v>
-      </c>
-      <c r="K82" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="83" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F83" s="3"/>
       <c r="H83" t="s">
+        <v>521</v>
+      </c>
+      <c r="I83" t="s">
         <v>522</v>
       </c>
-      <c r="I83" t="s">
+      <c r="K83" t="s">
         <v>523</v>
-      </c>
-      <c r="K83" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="84" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F84" s="3"/>
       <c r="H84" t="s">
+        <v>524</v>
+      </c>
+      <c r="I84" t="s">
         <v>525</v>
       </c>
-      <c r="I84" t="s">
+      <c r="K84" t="s">
         <v>526</v>
-      </c>
-      <c r="K84" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="85" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F85" s="3"/>
       <c r="H85" t="s">
+        <v>527</v>
+      </c>
+      <c r="I85" t="s">
         <v>528</v>
       </c>
-      <c r="I85" t="s">
+      <c r="K85" t="s">
         <v>529</v>
-      </c>
-      <c r="K85" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="86" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F86" s="3"/>
       <c r="H86" t="s">
+        <v>530</v>
+      </c>
+      <c r="I86" t="s">
         <v>531</v>
       </c>
-      <c r="I86" t="s">
+      <c r="K86" t="s">
         <v>532</v>
-      </c>
-      <c r="K86" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="87" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F87" s="3"/>
       <c r="H87" t="s">
+        <v>533</v>
+      </c>
+      <c r="I87" t="s">
         <v>534</v>
       </c>
-      <c r="I87" t="s">
+      <c r="K87" t="s">
         <v>535</v>
-      </c>
-      <c r="K87" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="88" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H88" t="s">
+        <v>536</v>
+      </c>
+      <c r="I88" t="s">
         <v>537</v>
       </c>
-      <c r="I88" t="s">
+      <c r="K88" t="s">
         <v>538</v>
-      </c>
-      <c r="K88" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="89" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H89" t="s">
+        <v>539</v>
+      </c>
+      <c r="I89" t="s">
         <v>540</v>
       </c>
-      <c r="I89" t="s">
+      <c r="K89" t="s">
         <v>541</v>
-      </c>
-      <c r="K89" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="90" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H90" t="s">
+        <v>542</v>
+      </c>
+      <c r="I90" t="s">
         <v>543</v>
       </c>
-      <c r="I90" t="s">
+      <c r="K90" t="s">
         <v>544</v>
-      </c>
-      <c r="K90" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="91" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H91" t="s">
+        <v>545</v>
+      </c>
+      <c r="I91" t="s">
         <v>546</v>
       </c>
-      <c r="I91" t="s">
+      <c r="K91" t="s">
         <v>547</v>
-      </c>
-      <c r="K91" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="92" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H92" t="s">
+        <v>548</v>
+      </c>
+      <c r="I92" t="s">
         <v>549</v>
       </c>
-      <c r="I92" t="s">
+      <c r="K92" t="s">
         <v>550</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>551</v>
       </c>
-      <c r="L92" t="s">
-        <v>552</v>
-      </c>
       <c r="M92" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N92" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="93" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H93" t="s">
+        <v>552</v>
+      </c>
+      <c r="I93" t="s">
         <v>553</v>
       </c>
-      <c r="I93" t="s">
+      <c r="K93" t="s">
         <v>554</v>
-      </c>
-      <c r="K93" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="94" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H94" t="s">
+        <v>555</v>
+      </c>
+      <c r="I94" t="s">
         <v>556</v>
       </c>
-      <c r="I94" t="s">
+      <c r="K94" t="s">
         <v>557</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>558</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>559</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>560</v>
-      </c>
-      <c r="N94" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="95" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H95" t="s">
+        <v>561</v>
+      </c>
+      <c r="I95" t="s">
         <v>562</v>
       </c>
-      <c r="I95" t="s">
+      <c r="K95" t="s">
         <v>563</v>
-      </c>
-      <c r="K95" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="96" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H96" t="s">
+        <v>564</v>
+      </c>
+      <c r="I96" t="s">
         <v>565</v>
       </c>
-      <c r="I96" t="s">
+      <c r="K96" t="s">
         <v>566</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>567</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>568</v>
       </c>
-      <c r="M96" t="s">
-        <v>569</v>
-      </c>
       <c r="N96" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="97" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F97" t="s">
+        <v>569</v>
+      </c>
+      <c r="G97" t="s">
         <v>570</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>571</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>572</v>
       </c>
-      <c r="I97" t="s">
+      <c r="K97" t="s">
         <v>573</v>
-      </c>
-      <c r="K97" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="98" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F98" t="s">
+        <v>574</v>
+      </c>
+      <c r="H98" t="s">
         <v>575</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>576</v>
       </c>
-      <c r="I98" t="s">
+      <c r="K98" t="s">
         <v>577</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>578</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>579</v>
       </c>
-      <c r="M98" t="s">
+      <c r="N98" t="s">
         <v>580</v>
-      </c>
-      <c r="N98" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="99" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F99" t="s">
+        <v>581</v>
+      </c>
+      <c r="H99" t="s">
         <v>582</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>583</v>
       </c>
-      <c r="I99" t="s">
+      <c r="K99" t="s">
         <v>584</v>
-      </c>
-      <c r="K99" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="100" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F100" t="s">
+        <v>585</v>
+      </c>
+      <c r="H100" t="s">
         <v>586</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>587</v>
       </c>
-      <c r="I100" t="s">
+      <c r="K100" t="s">
         <v>588</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>589</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>590</v>
       </c>
-      <c r="M100" t="s">
+      <c r="N100" t="s">
         <v>591</v>
-      </c>
-      <c r="N100" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="101" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F101" t="s">
+        <v>592</v>
+      </c>
+      <c r="H101" t="s">
         <v>593</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>594</v>
       </c>
-      <c r="I101" t="s">
+      <c r="K101" t="s">
         <v>595</v>
-      </c>
-      <c r="K101" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="102" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F102" t="s">
+        <v>596</v>
+      </c>
+      <c r="H102" t="s">
         <v>597</v>
       </c>
-      <c r="H102" t="s">
+      <c r="K102" t="s">
         <v>598</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>599</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
         <v>600</v>
       </c>
-      <c r="M102" t="s">
+      <c r="N102" t="s">
         <v>601</v>
-      </c>
-      <c r="N102" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="103" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F103" t="s">
+        <v>602</v>
+      </c>
+      <c r="H103" t="s">
         <v>603</v>
       </c>
-      <c r="H103" t="s">
+      <c r="K103" t="s">
         <v>604</v>
-      </c>
-      <c r="K103" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="104" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F104" t="s">
+        <v>605</v>
+      </c>
+      <c r="H104" t="s">
         <v>606</v>
       </c>
-      <c r="H104" t="s">
+      <c r="K104" t="s">
         <v>607</v>
       </c>
-      <c r="K104" t="s">
+      <c r="L104" t="s">
         <v>608</v>
       </c>
-      <c r="L104" t="s">
+      <c r="M104" t="s">
         <v>609</v>
       </c>
-      <c r="M104" t="s">
+      <c r="N104" t="s">
         <v>610</v>
-      </c>
-      <c r="N104" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="105" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F105" t="s">
+        <v>611</v>
+      </c>
+      <c r="H105" t="s">
         <v>612</v>
       </c>
-      <c r="H105" t="s">
+      <c r="K105" t="s">
         <v>613</v>
-      </c>
-      <c r="K105" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="106" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F106" t="s">
+        <v>614</v>
+      </c>
+      <c r="H106" t="s">
         <v>615</v>
       </c>
-      <c r="H106" t="s">
+      <c r="K106" t="s">
         <v>616</v>
       </c>
-      <c r="K106" t="s">
+      <c r="L106" t="s">
         <v>617</v>
       </c>
-      <c r="L106" t="s">
+      <c r="M106" t="s">
         <v>618</v>
       </c>
-      <c r="M106" t="s">
+      <c r="N106" t="s">
         <v>619</v>
-      </c>
-      <c r="N106" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="107" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F107" t="s">
+        <v>620</v>
+      </c>
+      <c r="H107" t="s">
         <v>621</v>
       </c>
-      <c r="H107" t="s">
+      <c r="K107" t="s">
         <v>622</v>
-      </c>
-      <c r="K107" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="108" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F108" t="s">
+        <v>623</v>
+      </c>
+      <c r="H108" t="s">
         <v>624</v>
       </c>
-      <c r="H108" t="s">
+      <c r="K108" t="s">
         <v>625</v>
       </c>
-      <c r="K108" t="s">
+      <c r="L108" t="s">
         <v>626</v>
       </c>
-      <c r="L108" t="s">
+      <c r="M108" t="s">
         <v>627</v>
       </c>
-      <c r="M108" t="s">
+      <c r="N108" t="s">
         <v>628</v>
-      </c>
-      <c r="N108" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="109" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F109" t="s">
+        <v>629</v>
+      </c>
+      <c r="H109" t="s">
         <v>630</v>
       </c>
-      <c r="H109" t="s">
+      <c r="K109" t="s">
         <v>631</v>
-      </c>
-      <c r="K109" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="110" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F110" t="s">
+        <v>632</v>
+      </c>
+      <c r="H110" t="s">
         <v>633</v>
       </c>
-      <c r="H110" t="s">
+      <c r="K110" t="s">
         <v>634</v>
       </c>
-      <c r="K110" t="s">
+      <c r="L110" t="s">
         <v>635</v>
       </c>
-      <c r="L110" t="s">
+      <c r="M110" t="s">
         <v>636</v>
       </c>
-      <c r="M110" t="s">
+      <c r="N110" t="s">
         <v>637</v>
-      </c>
-      <c r="N110" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="111" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F111" t="s">
+        <v>638</v>
+      </c>
+      <c r="H111" t="s">
         <v>639</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>640</v>
       </c>
-      <c r="I111" t="s">
+      <c r="K111" t="s">
         <v>641</v>
-      </c>
-      <c r="K111" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="112" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F112" t="s">
+        <v>642</v>
+      </c>
+      <c r="H112" t="s">
         <v>643</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>644</v>
       </c>
-      <c r="I112" t="s">
+      <c r="K112" t="s">
         <v>645</v>
       </c>
-      <c r="K112" t="s">
+      <c r="L112" t="s">
         <v>646</v>
       </c>
-      <c r="L112" t="s">
+      <c r="M112" t="s">
         <v>647</v>
       </c>
-      <c r="M112" t="s">
+      <c r="N112" t="s">
         <v>648</v>
-      </c>
-      <c r="N112" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="113" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F113" t="s">
+        <v>649</v>
+      </c>
+      <c r="H113" t="s">
         <v>650</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>651</v>
       </c>
-      <c r="I113" t="s">
+      <c r="K113" t="s">
         <v>652</v>
-      </c>
-      <c r="K113" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="114" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F114" t="s">
+        <v>653</v>
+      </c>
+      <c r="H114" t="s">
         <v>654</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>655</v>
       </c>
-      <c r="I114" t="s">
+      <c r="K114" t="s">
         <v>656</v>
       </c>
-      <c r="K114" t="s">
+      <c r="L114" t="s">
         <v>657</v>
       </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
         <v>658</v>
       </c>
-      <c r="M114" t="s">
+      <c r="N114" t="s">
         <v>659</v>
-      </c>
-      <c r="N114" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="115" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F115" t="s">
+        <v>660</v>
+      </c>
+      <c r="H115" t="s">
         <v>661</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>662</v>
       </c>
-      <c r="I115" t="s">
+      <c r="K115" t="s">
         <v>663</v>
-      </c>
-      <c r="K115" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="116" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F116" t="s">
+        <v>664</v>
+      </c>
+      <c r="H116" t="s">
         <v>665</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>666</v>
       </c>
-      <c r="I116" t="s">
+      <c r="K116" t="s">
         <v>667</v>
       </c>
-      <c r="K116" t="s">
+      <c r="L116" t="s">
         <v>668</v>
       </c>
-      <c r="L116" t="s">
+      <c r="M116" t="s">
         <v>669</v>
       </c>
-      <c r="M116" t="s">
+      <c r="N116" t="s">
         <v>670</v>
-      </c>
-      <c r="N116" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="117" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F117" t="s">
+        <v>671</v>
+      </c>
+      <c r="H117" t="s">
         <v>672</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>673</v>
       </c>
-      <c r="I117" t="s">
+      <c r="K117" t="s">
         <v>674</v>
-      </c>
-      <c r="K117" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="118" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F118" t="s">
+        <v>675</v>
+      </c>
+      <c r="H118" t="s">
         <v>676</v>
       </c>
-      <c r="H118" t="s">
+      <c r="K118" t="s">
         <v>677</v>
       </c>
-      <c r="K118" t="s">
+      <c r="L118" t="s">
         <v>678</v>
       </c>
-      <c r="L118" t="s">
+      <c r="M118" t="s">
         <v>679</v>
       </c>
-      <c r="M118" t="s">
-        <v>680</v>
+      <c r="N118" s="15" t="s">
+        <v>1436</v>
       </c>
     </row>
     <row r="119" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H119" t="s">
+        <v>680</v>
+      </c>
+      <c r="K119" t="s">
         <v>681</v>
-      </c>
-      <c r="K119" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="120" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H120" t="s">
+        <v>682</v>
+      </c>
+      <c r="K120" t="s">
         <v>683</v>
       </c>
-      <c r="K120" t="s">
+      <c r="L120" t="s">
         <v>684</v>
       </c>
-      <c r="L120" t="s">
+      <c r="M120" t="s">
         <v>685</v>
-      </c>
-      <c r="M120" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="121" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H121" t="s">
+        <v>686</v>
+      </c>
+      <c r="K121" t="s">
         <v>687</v>
-      </c>
-      <c r="K121" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="122" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H122" t="s">
+        <v>688</v>
+      </c>
+      <c r="K122" t="s">
         <v>689</v>
       </c>
-      <c r="K122" t="s">
+      <c r="L122" t="s">
         <v>690</v>
       </c>
-      <c r="L122" t="s">
+      <c r="M122" t="s">
         <v>691</v>
-      </c>
-      <c r="M122" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="123" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H123" t="s">
+        <v>692</v>
+      </c>
+      <c r="K123" t="s">
         <v>693</v>
-      </c>
-      <c r="K123" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="124" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H124" t="s">
+        <v>694</v>
+      </c>
+      <c r="K124" t="s">
         <v>695</v>
       </c>
-      <c r="K124" t="s">
+      <c r="L124" t="s">
         <v>696</v>
       </c>
-      <c r="L124" t="s">
+      <c r="M124" t="s">
         <v>697</v>
-      </c>
-      <c r="M124" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="125" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H125" t="s">
+        <v>698</v>
+      </c>
+      <c r="K125" t="s">
         <v>699</v>
-      </c>
-      <c r="K125" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="126" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H126" t="s">
+        <v>700</v>
+      </c>
+      <c r="K126" t="s">
         <v>701</v>
       </c>
-      <c r="K126" t="s">
+      <c r="L126" t="s">
         <v>702</v>
       </c>
-      <c r="L126" t="s">
+      <c r="M126" t="s">
         <v>703</v>
-      </c>
-      <c r="M126" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="127" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H127" t="s">
+        <v>704</v>
+      </c>
+      <c r="K127" t="s">
         <v>705</v>
-      </c>
-      <c r="K127" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="128" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H128" t="s">
+        <v>706</v>
+      </c>
+      <c r="K128" t="s">
         <v>707</v>
       </c>
-      <c r="K128" t="s">
+      <c r="L128" t="s">
         <v>708</v>
       </c>
-      <c r="L128" t="s">
+      <c r="M128" t="s">
         <v>709</v>
-      </c>
-      <c r="M128" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="129" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H129" t="s">
+        <v>710</v>
+      </c>
+      <c r="K129" t="s">
         <v>711</v>
-      </c>
-      <c r="K129" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="130" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H130" t="s">
+        <v>712</v>
+      </c>
+      <c r="K130" t="s">
         <v>713</v>
       </c>
-      <c r="K130" t="s">
+      <c r="L130" t="s">
         <v>714</v>
-      </c>
-      <c r="L130" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="131" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H131" t="s">
+        <v>715</v>
+      </c>
+      <c r="I131" t="s">
         <v>716</v>
       </c>
-      <c r="I131" t="s">
+      <c r="K131" t="s">
         <v>717</v>
-      </c>
-      <c r="K131" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="132" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H132" t="s">
+        <v>718</v>
+      </c>
+      <c r="I132" t="s">
         <v>719</v>
       </c>
-      <c r="I132" t="s">
+      <c r="K132" t="s">
         <v>720</v>
       </c>
-      <c r="K132" t="s">
+      <c r="L132" t="s">
         <v>721</v>
-      </c>
-      <c r="L132" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="133" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H133" t="s">
+        <v>722</v>
+      </c>
+      <c r="I133" t="s">
         <v>723</v>
       </c>
-      <c r="I133" t="s">
+      <c r="K133" t="s">
         <v>724</v>
-      </c>
-      <c r="K133" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="134" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H134" t="s">
+        <v>725</v>
+      </c>
+      <c r="I134" t="s">
         <v>726</v>
       </c>
-      <c r="I134" t="s">
+      <c r="K134" t="s">
         <v>727</v>
       </c>
-      <c r="K134" t="s">
+      <c r="L134" t="s">
         <v>728</v>
-      </c>
-      <c r="L134" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="135" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H135" t="s">
+        <v>729</v>
+      </c>
+      <c r="I135" t="s">
         <v>730</v>
       </c>
-      <c r="I135" t="s">
+      <c r="K135" t="s">
         <v>731</v>
-      </c>
-      <c r="K135" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="136" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H136" t="s">
+        <v>732</v>
+      </c>
+      <c r="I136" t="s">
         <v>733</v>
       </c>
-      <c r="I136" t="s">
+      <c r="K136" t="s">
         <v>734</v>
       </c>
-      <c r="K136" t="s">
+      <c r="L136" t="s">
         <v>735</v>
-      </c>
-      <c r="L136" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="137" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H137" t="s">
+        <v>736</v>
+      </c>
+      <c r="I137" t="s">
         <v>737</v>
       </c>
-      <c r="I137" t="s">
+      <c r="K137" t="s">
         <v>738</v>
-      </c>
-      <c r="K137" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="138" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H138" t="s">
+        <v>739</v>
+      </c>
+      <c r="K138" t="s">
         <v>740</v>
       </c>
-      <c r="K138" t="s">
+      <c r="L138" t="s">
         <v>741</v>
-      </c>
-      <c r="L138" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="139" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H139" t="s">
+        <v>742</v>
+      </c>
+      <c r="K139" t="s">
         <v>743</v>
-      </c>
-      <c r="K139" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="140" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H140" t="s">
+        <v>744</v>
+      </c>
+      <c r="K140" t="s">
         <v>745</v>
       </c>
-      <c r="K140" t="s">
+      <c r="L140" t="s">
         <v>746</v>
-      </c>
-      <c r="L140" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="141" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H141" t="s">
+        <v>747</v>
+      </c>
+      <c r="I141" t="s">
         <v>748</v>
       </c>
-      <c r="I141" t="s">
+      <c r="K141" t="s">
         <v>749</v>
-      </c>
-      <c r="K141" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="142" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H142" t="s">
+        <v>750</v>
+      </c>
+      <c r="I142" t="s">
         <v>751</v>
       </c>
-      <c r="I142" t="s">
+      <c r="K142" t="s">
         <v>752</v>
       </c>
-      <c r="K142" t="s">
+      <c r="L142" t="s">
         <v>753</v>
-      </c>
-      <c r="L142" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="143" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H143" t="s">
+        <v>754</v>
+      </c>
+      <c r="I143" t="s">
         <v>755</v>
       </c>
-      <c r="I143" t="s">
+      <c r="K143" t="s">
         <v>756</v>
-      </c>
-      <c r="K143" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="144" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H144" t="s">
+        <v>757</v>
+      </c>
+      <c r="I144" t="s">
         <v>758</v>
       </c>
-      <c r="I144" t="s">
+      <c r="K144" t="s">
         <v>759</v>
       </c>
-      <c r="K144" t="s">
+      <c r="L144" t="s">
         <v>760</v>
-      </c>
-      <c r="L144" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="145" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H145" t="s">
+        <v>761</v>
+      </c>
+      <c r="I145" t="s">
         <v>762</v>
       </c>
-      <c r="I145" t="s">
+      <c r="K145" t="s">
         <v>763</v>
-      </c>
-      <c r="K145" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="146" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H146" t="s">
+        <v>764</v>
+      </c>
+      <c r="I146" t="s">
         <v>765</v>
       </c>
-      <c r="I146" t="s">
+      <c r="K146" t="s">
         <v>766</v>
-      </c>
-      <c r="K146" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="147" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H147" t="s">
+        <v>767</v>
+      </c>
+      <c r="I147" t="s">
         <v>768</v>
       </c>
-      <c r="I147" t="s">
+      <c r="K147" t="s">
         <v>769</v>
-      </c>
-      <c r="K147" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="148" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H148" t="s">
+        <v>770</v>
+      </c>
+      <c r="K148" t="s">
         <v>771</v>
-      </c>
-      <c r="K148" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="149" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H149" t="s">
+        <v>772</v>
+      </c>
+      <c r="K149" t="s">
         <v>773</v>
-      </c>
-      <c r="K149" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="150" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H150" t="s">
+        <v>774</v>
+      </c>
+      <c r="K150" t="s">
         <v>775</v>
-      </c>
-      <c r="K150" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="151" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H151" t="s">
+        <v>776</v>
+      </c>
+      <c r="I151" t="s">
         <v>777</v>
       </c>
-      <c r="I151" t="s">
+      <c r="K151" t="s">
         <v>778</v>
-      </c>
-      <c r="K151" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="152" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H152" t="s">
+        <v>779</v>
+      </c>
+      <c r="I152" t="s">
         <v>780</v>
       </c>
-      <c r="I152" t="s">
+      <c r="K152" t="s">
         <v>781</v>
       </c>
-      <c r="K152" t="s">
+      <c r="L152" t="s">
         <v>782</v>
       </c>
-      <c r="L152" t="s">
-        <v>783</v>
-      </c>
       <c r="M152" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="N152" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="153" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H153" t="s">
+        <v>783</v>
+      </c>
+      <c r="I153" t="s">
         <v>784</v>
       </c>
-      <c r="I153" t="s">
+      <c r="K153" t="s">
         <v>785</v>
-      </c>
-      <c r="K153" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="154" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H154" t="s">
+        <v>786</v>
+      </c>
+      <c r="I154" t="s">
         <v>787</v>
       </c>
-      <c r="I154" t="s">
+      <c r="K154" t="s">
         <v>788</v>
       </c>
-      <c r="K154" t="s">
+      <c r="L154" t="s">
         <v>789</v>
       </c>
-      <c r="L154" t="s">
+      <c r="M154" t="s">
         <v>790</v>
       </c>
-      <c r="M154" t="s">
+      <c r="N154" t="s">
         <v>791</v>
-      </c>
-      <c r="N154" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="155" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H155" t="s">
+        <v>792</v>
+      </c>
+      <c r="I155" t="s">
         <v>793</v>
       </c>
-      <c r="I155" t="s">
+      <c r="K155" t="s">
         <v>794</v>
-      </c>
-      <c r="K155" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="156" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H156" t="s">
+        <v>795</v>
+      </c>
+      <c r="I156" t="s">
         <v>796</v>
       </c>
-      <c r="I156" t="s">
+      <c r="K156" t="s">
         <v>797</v>
       </c>
-      <c r="K156" t="s">
+      <c r="L156" t="s">
         <v>798</v>
       </c>
-      <c r="L156" t="s">
+      <c r="M156" t="s">
         <v>799</v>
       </c>
-      <c r="M156" t="s">
+      <c r="N156" t="s">
         <v>800</v>
-      </c>
-      <c r="N156" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="157" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H157" t="s">
+        <v>801</v>
+      </c>
+      <c r="I157" t="s">
         <v>802</v>
       </c>
-      <c r="I157" t="s">
+      <c r="K157" t="s">
         <v>803</v>
-      </c>
-      <c r="K157" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="158" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H158" t="s">
+        <v>804</v>
+      </c>
+      <c r="K158" t="s">
         <v>805</v>
       </c>
-      <c r="K158" t="s">
+      <c r="L158" t="s">
         <v>806</v>
       </c>
-      <c r="L158" t="s">
+      <c r="M158" t="s">
         <v>807</v>
       </c>
-      <c r="M158" t="s">
+      <c r="N158" t="s">
         <v>808</v>
-      </c>
-      <c r="N158" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="159" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H159" t="s">
+        <v>809</v>
+      </c>
+      <c r="K159" t="s">
         <v>810</v>
-      </c>
-      <c r="K159" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="160" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H160" t="s">
+        <v>811</v>
+      </c>
+      <c r="K160" t="s">
         <v>812</v>
       </c>
-      <c r="K160" t="s">
+      <c r="L160" t="s">
         <v>813</v>
       </c>
-      <c r="L160" t="s">
+      <c r="M160" t="s">
         <v>814</v>
       </c>
-      <c r="M160" t="s">
+      <c r="N160" t="s">
         <v>815</v>
-      </c>
-      <c r="N160" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="161" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H161" t="s">
+        <v>816</v>
+      </c>
+      <c r="I161" t="s">
         <v>817</v>
       </c>
-      <c r="I161" t="s">
+      <c r="K161" t="s">
         <v>818</v>
-      </c>
-      <c r="K161" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="162" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H162" t="s">
+        <v>819</v>
+      </c>
+      <c r="I162" t="s">
         <v>820</v>
       </c>
-      <c r="I162" t="s">
+      <c r="K162" t="s">
         <v>821</v>
       </c>
-      <c r="K162" t="s">
+      <c r="L162" t="s">
         <v>822</v>
       </c>
-      <c r="L162" t="s">
+      <c r="M162" t="s">
         <v>823</v>
       </c>
-      <c r="M162" t="s">
+      <c r="N162" t="s">
         <v>824</v>
-      </c>
-      <c r="N162" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="163" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H163" t="s">
+        <v>825</v>
+      </c>
+      <c r="I163" t="s">
         <v>826</v>
       </c>
-      <c r="I163" t="s">
+      <c r="K163" t="s">
         <v>827</v>
-      </c>
-      <c r="K163" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="164" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H164" t="s">
+        <v>828</v>
+      </c>
+      <c r="I164" t="s">
         <v>829</v>
       </c>
-      <c r="I164" t="s">
+      <c r="K164" t="s">
         <v>830</v>
       </c>
-      <c r="K164" t="s">
+      <c r="L164" t="s">
         <v>831</v>
       </c>
-      <c r="L164" t="s">
+      <c r="M164" t="s">
         <v>832</v>
       </c>
-      <c r="M164" t="s">
+      <c r="N164" t="s">
         <v>833</v>
-      </c>
-      <c r="N164" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="165" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H165" t="s">
+        <v>834</v>
+      </c>
+      <c r="I165" t="s">
         <v>835</v>
       </c>
-      <c r="I165" t="s">
+      <c r="K165" t="s">
         <v>836</v>
-      </c>
-      <c r="K165" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="166" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H166" t="s">
+        <v>837</v>
+      </c>
+      <c r="I166" t="s">
         <v>838</v>
       </c>
-      <c r="I166" t="s">
+      <c r="K166" t="s">
         <v>839</v>
       </c>
-      <c r="K166" t="s">
+      <c r="L166" t="s">
         <v>840</v>
       </c>
-      <c r="L166" t="s">
+      <c r="M166" t="s">
         <v>841</v>
       </c>
-      <c r="M166" t="s">
-        <v>842</v>
+      <c r="N166" s="15" t="s">
+        <v>1437</v>
       </c>
     </row>
     <row r="167" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H167" t="s">
+        <v>842</v>
+      </c>
+      <c r="I167" t="s">
         <v>843</v>
       </c>
-      <c r="I167" t="s">
+      <c r="K167" t="s">
         <v>844</v>
-      </c>
-      <c r="K167" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="168" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H168" t="s">
+        <v>845</v>
+      </c>
+      <c r="K168" t="s">
         <v>846</v>
       </c>
-      <c r="K168" t="s">
+      <c r="L168" t="s">
         <v>847</v>
       </c>
-      <c r="L168" t="s">
+      <c r="M168" t="s">
         <v>848</v>
-      </c>
-      <c r="M168" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="169" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H169" t="s">
+        <v>849</v>
+      </c>
+      <c r="K169" t="s">
         <v>850</v>
-      </c>
-      <c r="K169" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="170" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H170" t="s">
+        <v>851</v>
+      </c>
+      <c r="K170" t="s">
         <v>852</v>
       </c>
-      <c r="K170" t="s">
+      <c r="L170" t="s">
         <v>853</v>
       </c>
-      <c r="L170" t="s">
+      <c r="M170" t="s">
         <v>854</v>
-      </c>
-      <c r="M170" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="171" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H171" t="s">
+        <v>855</v>
+      </c>
+      <c r="K171" t="s">
         <v>856</v>
-      </c>
-      <c r="K171" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="172" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H172" t="s">
+        <v>857</v>
+      </c>
+      <c r="K172" t="s">
         <v>858</v>
       </c>
-      <c r="K172" t="s">
+      <c r="L172" t="s">
         <v>859</v>
-      </c>
-      <c r="L172" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="173" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H173" t="s">
+        <v>860</v>
+      </c>
+      <c r="K173" t="s">
         <v>861</v>
-      </c>
-      <c r="K173" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="174" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H174" t="s">
+        <v>862</v>
+      </c>
+      <c r="K174" t="s">
         <v>863</v>
       </c>
-      <c r="K174" t="s">
+      <c r="L174" t="s">
         <v>864</v>
-      </c>
-      <c r="L174" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="175" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H175" t="s">
+        <v>865</v>
+      </c>
+      <c r="K175" t="s">
         <v>866</v>
-      </c>
-      <c r="K175" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="176" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H176" t="s">
+        <v>867</v>
+      </c>
+      <c r="K176" t="s">
         <v>868</v>
       </c>
-      <c r="K176" t="s">
+      <c r="L176" t="s">
         <v>869</v>
-      </c>
-      <c r="L176" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="177" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H177" t="s">
+        <v>870</v>
+      </c>
+      <c r="K177" t="s">
         <v>871</v>
-      </c>
-      <c r="K177" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="178" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H178" t="s">
+        <v>872</v>
+      </c>
+      <c r="K178" t="s">
         <v>873</v>
       </c>
-      <c r="K178" t="s">
+      <c r="L178" t="s">
         <v>874</v>
-      </c>
-      <c r="L178" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="179" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H179" t="s">
+        <v>875</v>
+      </c>
+      <c r="K179" t="s">
         <v>876</v>
-      </c>
-      <c r="K179" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="180" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H180" t="s">
+        <v>877</v>
+      </c>
+      <c r="K180" t="s">
         <v>878</v>
-      </c>
-      <c r="K180" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="181" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H181" t="s">
+        <v>879</v>
+      </c>
+      <c r="K181" t="s">
         <v>880</v>
-      </c>
-      <c r="K181" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="182" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H182" t="s">
+        <v>881</v>
+      </c>
+      <c r="K182" t="s">
         <v>882</v>
-      </c>
-      <c r="K182" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="183" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H183" t="s">
+        <v>883</v>
+      </c>
+      <c r="K183" t="s">
         <v>884</v>
-      </c>
-      <c r="K183" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="184" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H184" t="s">
+        <v>885</v>
+      </c>
+      <c r="K184" t="s">
         <v>886</v>
-      </c>
-      <c r="K184" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="185" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H185" t="s">
+        <v>887</v>
+      </c>
+      <c r="K185" t="s">
         <v>888</v>
-      </c>
-      <c r="K185" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="186" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H186" t="s">
+        <v>889</v>
+      </c>
+      <c r="K186" t="s">
         <v>890</v>
-      </c>
-      <c r="K186" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="187" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H187" t="s">
+        <v>891</v>
+      </c>
+      <c r="K187" t="s">
         <v>892</v>
-      </c>
-      <c r="K187" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="188" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H188" t="s">
+        <v>893</v>
+      </c>
+      <c r="K188" t="s">
         <v>894</v>
-      </c>
-      <c r="K188" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="189" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H189" t="s">
+        <v>895</v>
+      </c>
+      <c r="K189" t="s">
         <v>896</v>
-      </c>
-      <c r="K189" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="190" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H190" t="s">
+        <v>897</v>
+      </c>
+      <c r="K190" t="s">
         <v>898</v>
-      </c>
-      <c r="K190" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="191" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H191" t="s">
+        <v>899</v>
+      </c>
+      <c r="K191" t="s">
         <v>900</v>
-      </c>
-      <c r="K191" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="192" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H192" t="s">
+        <v>901</v>
+      </c>
+      <c r="K192" t="s">
         <v>902</v>
       </c>
-      <c r="K192" t="s">
+      <c r="L192" t="s">
         <v>903</v>
       </c>
-      <c r="L192" t="s">
-        <v>904</v>
-      </c>
       <c r="M192" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="N192" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="193" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H193" t="s">
+        <v>904</v>
+      </c>
+      <c r="K193" t="s">
         <v>905</v>
-      </c>
-      <c r="K193" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="194" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H194" t="s">
+        <v>906</v>
+      </c>
+      <c r="K194" t="s">
         <v>907</v>
       </c>
-      <c r="K194" t="s">
+      <c r="L194" t="s">
         <v>908</v>
       </c>
-      <c r="L194" t="s">
+      <c r="M194" t="s">
         <v>909</v>
       </c>
-      <c r="M194" t="s">
+      <c r="N194" t="s">
         <v>910</v>
-      </c>
-      <c r="N194" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="195" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H195" t="s">
+        <v>911</v>
+      </c>
+      <c r="K195" t="s">
         <v>912</v>
-      </c>
-      <c r="K195" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="196" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H196" t="s">
+        <v>913</v>
+      </c>
+      <c r="K196" t="s">
         <v>914</v>
       </c>
-      <c r="K196" t="s">
+      <c r="L196" t="s">
         <v>915</v>
       </c>
-      <c r="L196" t="s">
+      <c r="M196" t="s">
         <v>916</v>
       </c>
-      <c r="M196" t="s">
+      <c r="N196" t="s">
         <v>917</v>
-      </c>
-      <c r="N196" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="197" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H197" t="s">
+        <v>918</v>
+      </c>
+      <c r="K197" t="s">
         <v>919</v>
-      </c>
-      <c r="K197" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="198" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H198" t="s">
+        <v>920</v>
+      </c>
+      <c r="K198" t="s">
         <v>921</v>
       </c>
-      <c r="K198" t="s">
+      <c r="L198" t="s">
         <v>922</v>
       </c>
-      <c r="L198" t="s">
+      <c r="M198" t="s">
         <v>923</v>
       </c>
-      <c r="M198" t="s">
+      <c r="N198" t="s">
         <v>924</v>
-      </c>
-      <c r="N198" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="199" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H199" t="s">
+        <v>925</v>
+      </c>
+      <c r="K199" t="s">
         <v>926</v>
-      </c>
-      <c r="K199" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="200" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H200" t="s">
+        <v>927</v>
+      </c>
+      <c r="K200" t="s">
         <v>928</v>
       </c>
-      <c r="K200" t="s">
+      <c r="L200" t="s">
         <v>929</v>
       </c>
-      <c r="L200" t="s">
+      <c r="M200" t="s">
         <v>930</v>
       </c>
-      <c r="M200" t="s">
+      <c r="N200" t="s">
         <v>931</v>
-      </c>
-      <c r="N200" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="201" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H201" t="s">
+        <v>932</v>
+      </c>
+      <c r="K201" t="s">
         <v>933</v>
-      </c>
-      <c r="K201" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="202" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H202" t="s">
+        <v>934</v>
+      </c>
+      <c r="K202" t="s">
         <v>935</v>
       </c>
-      <c r="K202" t="s">
+      <c r="L202" t="s">
         <v>936</v>
       </c>
-      <c r="L202" t="s">
+      <c r="M202" t="s">
         <v>937</v>
       </c>
-      <c r="M202" t="s">
+      <c r="N202" t="s">
         <v>938</v>
-      </c>
-      <c r="N202" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="203" spans="8:14" x14ac:dyDescent="0.15">
       <c r="K203" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="204" spans="8:14" x14ac:dyDescent="0.15">
       <c r="K204" t="s">
+        <v>940</v>
+      </c>
+      <c r="L204" t="s">
         <v>941</v>
       </c>
-      <c r="L204" t="s">
+      <c r="M204" t="s">
         <v>942</v>
       </c>
-      <c r="M204" t="s">
+      <c r="N204" t="s">
         <v>943</v>
-      </c>
-      <c r="N204" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="205" spans="8:14" x14ac:dyDescent="0.15">
       <c r="K205" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="206" spans="8:14" x14ac:dyDescent="0.15">
       <c r="K206" t="s">
+        <v>945</v>
+      </c>
+      <c r="L206" t="s">
         <v>946</v>
       </c>
-      <c r="L206" t="s">
+      <c r="M206" t="s">
         <v>947</v>
-      </c>
-      <c r="M206" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="207" spans="8:14" x14ac:dyDescent="0.15">
       <c r="K207" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="208" spans="8:14" x14ac:dyDescent="0.15">
       <c r="K208" t="s">
+        <v>949</v>
+      </c>
+      <c r="L208" t="s">
         <v>950</v>
       </c>
-      <c r="L208" t="s">
+      <c r="M208" t="s">
         <v>951</v>
-      </c>
-      <c r="M208" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="209" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K209" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="210" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K210" t="s">
+        <v>953</v>
+      </c>
+      <c r="L210" t="s">
         <v>954</v>
       </c>
-      <c r="L210" t="s">
+      <c r="M210" t="s">
         <v>955</v>
-      </c>
-      <c r="M210" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="211" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K211" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="212" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K212" t="s">
+        <v>957</v>
+      </c>
+      <c r="L212" t="s">
         <v>958</v>
-      </c>
-      <c r="L212" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="213" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K213" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="214" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K214" t="s">
+        <v>960</v>
+      </c>
+      <c r="L214" t="s">
         <v>961</v>
-      </c>
-      <c r="L214" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="215" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K215" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="216" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K216" t="s">
+        <v>963</v>
+      </c>
+      <c r="L216" t="s">
         <v>964</v>
-      </c>
-      <c r="L216" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="217" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K217" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="218" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K218" t="s">
+        <v>966</v>
+      </c>
+      <c r="L218" t="s">
         <v>967</v>
-      </c>
-      <c r="L218" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="219" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K219" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="220" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K220" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="221" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K221" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="222" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K222" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="223" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K223" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="224" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K224" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="225" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K225" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="226" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K226" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="227" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K227" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="228" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K228" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="229" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K229" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="230" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K230" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="231" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K231" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="232" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K232" t="s">
+        <v>981</v>
+      </c>
+      <c r="L232" t="s">
         <v>982</v>
-      </c>
-      <c r="L232" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="233" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K233" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="234" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K234" t="s">
+        <v>984</v>
+      </c>
+      <c r="L234" t="s">
         <v>985</v>
-      </c>
-      <c r="L234" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="235" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K235" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="236" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K236" t="s">
+        <v>987</v>
+      </c>
+      <c r="L236" t="s">
         <v>988</v>
-      </c>
-      <c r="L236" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="237" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K237" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="238" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K238" t="s">
+        <v>990</v>
+      </c>
+      <c r="L238" t="s">
         <v>991</v>
-      </c>
-      <c r="L238" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="239" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K239" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="240" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K240" t="s">
+        <v>993</v>
+      </c>
+      <c r="L240" t="s">
         <v>994</v>
-      </c>
-      <c r="L240" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="241" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K241" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="242" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K242" t="s">
+        <v>996</v>
+      </c>
+      <c r="L242" t="s">
         <v>997</v>
-      </c>
-      <c r="L242" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="243" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K243" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="244" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K244" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="245" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K245" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="246" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K246" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="247" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K247" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="248" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K248" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="249" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K249" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="250" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K250" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="251" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K251" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="252" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K252" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L252" t="s">
         <v>1008</v>
-      </c>
-      <c r="L252" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="253" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K253" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="254" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K254" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L254" t="s">
         <v>1011</v>
-      </c>
-      <c r="L254" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="255" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K255" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="256" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K256" t="s">
+        <v>1013</v>
+      </c>
+      <c r="L256" t="s">
         <v>1014</v>
-      </c>
-      <c r="L256" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="257" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K257" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="258" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K258" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L258" t="s">
         <v>1017</v>
-      </c>
-      <c r="L258" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="259" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K259" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="260" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K260" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L260" t="s">
         <v>1020</v>
-      </c>
-      <c r="L260" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="261" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K261" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="262" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K262" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L262" t="s">
         <v>1023</v>
-      </c>
-      <c r="L262" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="263" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K263" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="264" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K264" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="265" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K265" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="266" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K266" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="267" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K267" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="268" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K268" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="269" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K269" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="270" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K270" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="271" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K271" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L271" t="s">
         <v>1033</v>
-      </c>
-      <c r="L271" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="272" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K272" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L272" t="s">
         <v>1035</v>
       </c>
-      <c r="L272" t="s">
-        <v>1036</v>
-      </c>
       <c r="M272" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="N272" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="273" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K273" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="274" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K274" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L274" t="s">
         <v>1038</v>
       </c>
-      <c r="L274" t="s">
-        <v>1039</v>
-      </c>
       <c r="M274" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="N274" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="275" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K275" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="276" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K276" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L276" t="s">
         <v>1041</v>
       </c>
-      <c r="L276" t="s">
-        <v>1042</v>
-      </c>
       <c r="M276" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="N276" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="277" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K277" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="278" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K278" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L278" t="s">
         <v>1044</v>
       </c>
-      <c r="L278" t="s">
-        <v>1045</v>
-      </c>
       <c r="M278" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="N278" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="279" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K279" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="280" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K280" t="s">
+        <v>1046</v>
+      </c>
+      <c r="L280" t="s">
         <v>1047</v>
       </c>
-      <c r="L280" t="s">
-        <v>1048</v>
-      </c>
       <c r="M280" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="N280" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="281" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K281" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="282" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K282" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="283" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K283" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="284" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K284" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="285" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K285" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="286" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K286" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="287" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K287" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="288" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K288" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="289" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K289" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="290" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K290" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="291" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K291" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="292" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K292" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L292" t="s">
         <v>1060</v>
       </c>
-      <c r="L292" t="s">
-        <v>1061</v>
-      </c>
       <c r="M292" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="N292" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="293" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K293" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="294" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K294" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L294" t="s">
         <v>1063</v>
       </c>
-      <c r="L294" t="s">
-        <v>1064</v>
-      </c>
       <c r="M294" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="N294" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="295" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K295" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="296" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K296" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L296" t="s">
         <v>1066</v>
       </c>
-      <c r="L296" t="s">
-        <v>1067</v>
-      </c>
       <c r="M296" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="N296" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="297" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K297" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="298" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K298" t="s">
+        <v>1068</v>
+      </c>
+      <c r="L298" t="s">
         <v>1069</v>
       </c>
-      <c r="L298" t="s">
-        <v>1070</v>
-      </c>
       <c r="M298" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="N298" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="299" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K299" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="300" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K300" t="s">
+        <v>1071</v>
+      </c>
+      <c r="L300" t="s">
         <v>1072</v>
       </c>
-      <c r="L300" t="s">
-        <v>1073</v>
-      </c>
       <c r="M300" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="N300" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="301" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K301" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="302" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K302" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="303" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K303" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="304" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K304" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="305" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K305" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="306" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K306" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="307" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K307" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="308" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K308" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="309" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K309" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="310" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K310" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="311" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K311" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="312" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K312" t="s">
+        <v>1084</v>
+      </c>
+      <c r="L312" t="s">
         <v>1085</v>
       </c>
-      <c r="L312" t="s">
-        <v>1086</v>
-      </c>
       <c r="M312" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="N312" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="313" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K313" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="314" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K314" t="s">
+        <v>1087</v>
+      </c>
+      <c r="L314" t="s">
         <v>1088</v>
       </c>
-      <c r="L314" t="s">
-        <v>1089</v>
-      </c>
       <c r="M314" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="N314" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="315" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K315" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="316" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K316" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L316" t="s">
         <v>1091</v>
       </c>
-      <c r="L316" t="s">
-        <v>1092</v>
-      </c>
       <c r="M316" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="N316" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="317" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K317" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="318" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K318" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L318" t="s">
         <v>1094</v>
       </c>
-      <c r="L318" t="s">
-        <v>1095</v>
-      </c>
       <c r="M318" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="N318" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="319" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K319" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="320" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K320" t="s">
+        <v>1096</v>
+      </c>
+      <c r="L320" t="s">
         <v>1097</v>
       </c>
-      <c r="L320" t="s">
-        <v>1098</v>
-      </c>
       <c r="M320" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="N320" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="321" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K321" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="322" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K322" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="323" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K323" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="324" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K324" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="325" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K325" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="326" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K326" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="327" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K327" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="328" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K328" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="329" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K329" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="330" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K330" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="331" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K331" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="332" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K332" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L332" t="s">
         <v>1110</v>
       </c>
-      <c r="L332" t="s">
-        <v>1111</v>
-      </c>
       <c r="M332" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="N332" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="333" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K333" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="334" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K334" t="s">
+        <v>1112</v>
+      </c>
+      <c r="L334" t="s">
         <v>1113</v>
       </c>
-      <c r="L334" t="s">
-        <v>1114</v>
-      </c>
       <c r="M334" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="N334" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="335" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K335" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="336" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K336" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L336" t="s">
         <v>1116</v>
       </c>
-      <c r="L336" t="s">
-        <v>1117</v>
-      </c>
       <c r="M336" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="N336" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="337" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K337" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="338" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K338" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L338" t="s">
         <v>1119</v>
       </c>
-      <c r="L338" t="s">
-        <v>1120</v>
-      </c>
       <c r="M338" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="N338" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="339" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K339" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="340" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K340" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L340" t="s">
         <v>1122</v>
       </c>
-      <c r="L340" t="s">
-        <v>1123</v>
-      </c>
       <c r="M340" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="N340" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="341" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K341" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="342" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K342" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="343" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K343" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="344" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K344" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="345" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K345" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="346" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K346" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="347" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K347" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="348" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K348" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="349" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K349" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="350" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K350" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="351" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K351" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="352" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K352" t="s">
+        <v>1134</v>
+      </c>
+      <c r="L352" t="s">
         <v>1135</v>
       </c>
-      <c r="L352" t="s">
-        <v>1136</v>
-      </c>
       <c r="M352" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="N352" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="353" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K353" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="354" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K354" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L354" t="s">
         <v>1138</v>
       </c>
-      <c r="L354" t="s">
-        <v>1139</v>
-      </c>
       <c r="M354" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="N354" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="355" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K355" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="356" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K356" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L356" t="s">
         <v>1141</v>
       </c>
-      <c r="L356" t="s">
-        <v>1142</v>
-      </c>
       <c r="M356" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="N356" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="357" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K357" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="358" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K358" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L358" t="s">
         <v>1144</v>
       </c>
-      <c r="L358" t="s">
-        <v>1145</v>
-      </c>
       <c r="M358" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="N358" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="359" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K359" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="360" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K360" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L360" t="s">
         <v>1147</v>
       </c>
-      <c r="L360" t="s">
-        <v>1148</v>
-      </c>
       <c r="M360" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="N360" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="361" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K361" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="362" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K362" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="363" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K363" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="364" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K364" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="365" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K365" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="366" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K366" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="367" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K367" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="368" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K368" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="369" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K369" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="370" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K370" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="371" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K371" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="372" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K372" t="s">
+        <v>1159</v>
+      </c>
+      <c r="L372" t="s">
         <v>1160</v>
-      </c>
-      <c r="L372" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="373" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K373" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="374" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K374" t="s">
+        <v>1162</v>
+      </c>
+      <c r="L374" t="s">
         <v>1163</v>
-      </c>
-      <c r="L374" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="375" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K375" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="376" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K376" t="s">
+        <v>1165</v>
+      </c>
+      <c r="L376" t="s">
         <v>1166</v>
-      </c>
-      <c r="L376" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="377" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K377" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="378" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K378" t="s">
+        <v>1168</v>
+      </c>
+      <c r="L378" t="s">
         <v>1169</v>
-      </c>
-      <c r="L378" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="379" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K379" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="380" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K380" t="s">
+        <v>1171</v>
+      </c>
+      <c r="L380" t="s">
         <v>1172</v>
-      </c>
-      <c r="L380" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="381" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K381" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="382" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K382" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="383" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K383" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="384" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K384" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="385" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K385" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="386" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K386" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="387" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K387" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="388" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K388" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="389" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K389" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="390" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K390" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="391" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K391" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="392" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K392" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L392" t="s">
         <v>1185</v>
-      </c>
-      <c r="L392" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="393" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K393" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="394" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K394" t="s">
+        <v>1187</v>
+      </c>
+      <c r="L394" t="s">
         <v>1188</v>
-      </c>
-      <c r="L394" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="395" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K395" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="396" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K396" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L396" t="s">
         <v>1191</v>
-      </c>
-      <c r="L396" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="397" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K397" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="398" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K398" t="s">
+        <v>1193</v>
+      </c>
+      <c r="L398" t="s">
         <v>1194</v>
-      </c>
-      <c r="L398" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="399" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K399" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="400" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K400" t="s">
+        <v>1196</v>
+      </c>
+      <c r="L400" t="s">
         <v>1197</v>
-      </c>
-      <c r="L400" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="401" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K401" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="402" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K402" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="403" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K403" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="404" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K404" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="405" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K405" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="406" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K406" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="407" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K407" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="408" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K408" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="409" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K409" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="410" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K410" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="411" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K411" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="412" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K412" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="413" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K413" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="414" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K414" t="s">
+        <v>1211</v>
+      </c>
+      <c r="L414" t="s">
         <v>1212</v>
       </c>
-      <c r="L414" t="s">
+      <c r="M414" t="s">
         <v>1213</v>
       </c>
-      <c r="M414" t="s">
+      <c r="N414" t="s">
         <v>1214</v>
-      </c>
-      <c r="N414" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="415" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K415" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="416" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K416" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L416" t="s">
         <v>1217</v>
       </c>
-      <c r="L416" t="s">
+      <c r="M416" t="s">
         <v>1218</v>
       </c>
-      <c r="M416" t="s">
+      <c r="N416" t="s">
         <v>1219</v>
-      </c>
-      <c r="N416" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="417" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K417" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="418" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K418" t="s">
+        <v>1221</v>
+      </c>
+      <c r="L418" t="s">
         <v>1222</v>
       </c>
-      <c r="L418" t="s">
+      <c r="M418" t="s">
         <v>1223</v>
       </c>
-      <c r="M418" t="s">
+      <c r="N418" t="s">
         <v>1224</v>
-      </c>
-      <c r="N418" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="419" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K419" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="420" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K420" t="s">
+        <v>1226</v>
+      </c>
+      <c r="L420" t="s">
         <v>1227</v>
       </c>
-      <c r="L420" t="s">
+      <c r="M420" t="s">
         <v>1228</v>
       </c>
-      <c r="M420" t="s">
+      <c r="N420" t="s">
         <v>1229</v>
-      </c>
-      <c r="N420" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="421" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K421" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="422" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K422" t="s">
+        <v>1231</v>
+      </c>
+      <c r="L422" t="s">
         <v>1232</v>
       </c>
-      <c r="L422" t="s">
+      <c r="M422" t="s">
         <v>1233</v>
       </c>
-      <c r="M422" t="s">
+      <c r="N422" t="s">
         <v>1234</v>
-      </c>
-      <c r="N422" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="423" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K423" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="424" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K424" t="s">
+        <v>1236</v>
+      </c>
+      <c r="L424" t="s">
         <v>1237</v>
       </c>
-      <c r="L424" t="s">
+      <c r="M424" t="s">
         <v>1238</v>
       </c>
-      <c r="M424" t="s">
+      <c r="N424" t="s">
         <v>1239</v>
-      </c>
-      <c r="N424" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="425" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K425" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="426" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K426" t="s">
+        <v>1241</v>
+      </c>
+      <c r="L426" t="s">
         <v>1242</v>
       </c>
-      <c r="L426" t="s">
+      <c r="M426" t="s">
         <v>1243</v>
       </c>
-      <c r="M426" t="s">
-        <v>1244</v>
+      <c r="N426" s="15" t="s">
+        <v>1438</v>
       </c>
     </row>
     <row r="427" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K427" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="428" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K428" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L428" t="s">
         <v>1246</v>
       </c>
-      <c r="L428" t="s">
+      <c r="M428" t="s">
         <v>1247</v>
       </c>
-      <c r="M428" t="s">
-        <v>1248</v>
+      <c r="N428" s="15" t="s">
+        <v>1439</v>
       </c>
     </row>
     <row r="429" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K429" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="430" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K430" t="s">
+        <v>1249</v>
+      </c>
+      <c r="L430" t="s">
         <v>1250</v>
       </c>
-      <c r="L430" t="s">
+      <c r="M430" t="s">
         <v>1251</v>
-      </c>
-      <c r="M430" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="431" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K431" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="432" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K432" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L432" t="s">
         <v>1254</v>
-      </c>
-      <c r="L432" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="433" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K433" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="434" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K434" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L434" t="s">
         <v>1257</v>
-      </c>
-      <c r="L434" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="435" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K435" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="436" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K436" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L436" t="s">
         <v>1260</v>
-      </c>
-      <c r="L436" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="437" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K437" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="438" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K438" t="s">
+        <v>1262</v>
+      </c>
+      <c r="L438" t="s">
         <v>1263</v>
-      </c>
-      <c r="L438" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="439" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K439" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="440" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K440" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="441" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K441" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="442" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K442" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="443" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K443" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="444" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K444" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="445" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K445" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="446" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K446" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="447" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K447" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="448" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K448" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="449" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K449" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="450" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K450" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="451" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K451" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="452" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K452" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="453" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K453" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="454" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K454" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L454" t="s">
         <v>1280</v>
       </c>
-      <c r="L454" t="s">
+      <c r="M454" t="s">
         <v>1281</v>
       </c>
-      <c r="M454" t="s">
+      <c r="N454" t="s">
         <v>1282</v>
-      </c>
-      <c r="N454" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="455" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K455" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="456" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K456" t="s">
+        <v>1284</v>
+      </c>
+      <c r="L456" t="s">
         <v>1285</v>
       </c>
-      <c r="L456" t="s">
+      <c r="M456" t="s">
         <v>1286</v>
       </c>
-      <c r="M456" t="s">
+      <c r="N456" t="s">
         <v>1287</v>
-      </c>
-      <c r="N456" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="457" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K457" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="458" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K458" t="s">
+        <v>1289</v>
+      </c>
+      <c r="L458" t="s">
         <v>1290</v>
       </c>
-      <c r="L458" t="s">
+      <c r="M458" t="s">
         <v>1291</v>
       </c>
-      <c r="M458" t="s">
+      <c r="N458" t="s">
         <v>1292</v>
-      </c>
-      <c r="N458" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="459" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K459" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="460" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K460" t="s">
+        <v>1294</v>
+      </c>
+      <c r="L460" t="s">
         <v>1295</v>
       </c>
-      <c r="L460" t="s">
+      <c r="M460" t="s">
         <v>1296</v>
       </c>
-      <c r="M460" t="s">
+      <c r="N460" t="s">
         <v>1297</v>
-      </c>
-      <c r="N460" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="461" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K461" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="462" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K462" t="s">
+        <v>1299</v>
+      </c>
+      <c r="L462" t="s">
         <v>1300</v>
       </c>
-      <c r="L462" t="s">
+      <c r="M462" t="s">
         <v>1301</v>
       </c>
-      <c r="M462" t="s">
+      <c r="N462" t="s">
         <v>1302</v>
-      </c>
-      <c r="N462" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="463" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K463" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="464" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K464" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L464" t="s">
         <v>1305</v>
       </c>
-      <c r="L464" t="s">
+      <c r="M464" t="s">
         <v>1306</v>
       </c>
-      <c r="M464" t="s">
+      <c r="N464" t="s">
         <v>1307</v>
-      </c>
-      <c r="N464" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="465" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K465" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="466" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K466" t="s">
+        <v>1309</v>
+      </c>
+      <c r="L466" t="s">
         <v>1310</v>
       </c>
-      <c r="L466" t="s">
+      <c r="M466" t="s">
         <v>1311</v>
-      </c>
-      <c r="M466" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="467" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K467" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="468" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K468" t="s">
+        <v>1313</v>
+      </c>
+      <c r="L468" t="s">
         <v>1314</v>
       </c>
-      <c r="L468" t="s">
+      <c r="M468" t="s">
         <v>1315</v>
-      </c>
-      <c r="M468" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="469" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K469" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="470" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K470" t="s">
+        <v>1317</v>
+      </c>
+      <c r="L470" t="s">
         <v>1318</v>
       </c>
-      <c r="L470" t="s">
+      <c r="M470" t="s">
         <v>1319</v>
-      </c>
-      <c r="M470" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="471" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K471" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="472" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K472" t="s">
+        <v>1321</v>
+      </c>
+      <c r="L472" t="s">
         <v>1322</v>
-      </c>
-      <c r="L472" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="473" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K473" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="474" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K474" t="s">
+        <v>1324</v>
+      </c>
+      <c r="L474" t="s">
         <v>1325</v>
-      </c>
-      <c r="L474" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="475" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K475" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="476" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K476" t="s">
+        <v>1327</v>
+      </c>
+      <c r="L476" t="s">
         <v>1328</v>
-      </c>
-      <c r="L476" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="477" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K477" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="478" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K478" t="s">
+        <v>1330</v>
+      </c>
+      <c r="L478" t="s">
         <v>1331</v>
-      </c>
-      <c r="L478" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="479" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K479" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="480" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K480" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="481" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K481" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="482" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K482" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="483" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K483" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="484" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K484" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="485" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K485" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="486" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K486" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="487" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K487" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="488" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K488" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="489" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K489" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="490" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K490" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="491" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K491" t="s">
+        <v>1344</v>
+      </c>
+      <c r="L491" t="s">
         <v>1345</v>
-      </c>
-      <c r="L491" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="492" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K492" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
   </sheetData>
@@ -10490,239 +10530,239 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1" t="s">
         <v>1348</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B2" t="s">
         <v>1350</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B3" t="s">
         <v>1352</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B4" t="s">
         <v>1354</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B5" t="s">
         <v>1356</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B6" t="s">
         <v>1358</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B7" t="s">
         <v>1360</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B8" t="s">
         <v>1362</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B9" t="s">
         <v>1364</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B10" t="s">
         <v>1366</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B11" t="s">
         <v>1368</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B12" t="s">
         <v>1370</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B13" t="s">
         <v>1372</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B14" t="s">
         <v>1374</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B15" t="s">
         <v>1376</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B16" t="s">
         <v>1378</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B17" t="s">
         <v>1380</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B18" t="s">
         <v>1382</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B19" t="s">
         <v>1384</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B20" t="s">
         <v>1386</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B21" t="s">
         <v>1388</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B22" t="s">
         <v>1390</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B23" t="s">
         <v>1392</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B24" t="s">
         <v>1394</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
   </sheetData>

--- a/通用表格(2).xlsx
+++ b/通用表格(2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GIT储存库\PLC-mitsubishielectric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06703973-717E-4B5C-928E-D8E10B8EB301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF68B13-E0EB-4CF2-8514-613EEF5AA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="1440">
   <si>
     <t>M200</t>
   </si>
@@ -318,18 +318,12 @@
     <t xml:space="preserve"> 13.试漏完成存储位Z1轴点</t>
   </si>
   <si>
-    <t xml:space="preserve"> 13.试漏完成存储位Z2轴点</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 13.压装工位Z2轴点</t>
   </si>
   <si>
     <t xml:space="preserve"> 13.试漏完成存储位Y1轴点</t>
   </si>
   <si>
-    <t xml:space="preserve"> 13.试漏完成存储位Y2轴点</t>
-  </si>
-  <si>
     <t>M214</t>
   </si>
   <si>
@@ -546,9 +540,6 @@
     <t xml:space="preserve"> 24.最终试漏NG下料Z2轴点WAIT</t>
   </si>
   <si>
-    <t xml:space="preserve"> 24.试漏完成存储位Z1轴点</t>
-  </si>
-  <si>
     <t>M225</t>
   </si>
   <si>
@@ -567,9 +558,6 @@
     <t xml:space="preserve"> 25.最终试漏再投入Z2轴点WAIT</t>
   </si>
   <si>
-    <t xml:space="preserve"> 25.试漏完成存储位Z2轴点</t>
-  </si>
-  <si>
     <t>M226</t>
   </si>
   <si>
@@ -579,9 +567,6 @@
     <t xml:space="preserve"> 26.试漏完成存储位Z1轴点WAIT</t>
   </si>
   <si>
-    <t xml:space="preserve"> 26.试漏完成存储位Z2轴点WAIT</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 26.合格件下料位Z1轴点</t>
   </si>
   <si>
@@ -1089,15 +1074,6 @@
     <t>Z2伺服 4.中间试漏工位Z2轴取料点</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3.存储上下料位Z1轴取放料点</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.暂留</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.存储上下料位Y1轴取放料点</t>
-  </si>
-  <si>
     <t>D218</t>
   </si>
   <si>
@@ -1119,9 +1095,6 @@
     <t xml:space="preserve"> 4.瓦盖装配工位Z2轴取料点</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4.存储上下料位Z1轴取放料点</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 4.瓦盖装配工位Y1轴放料点</t>
   </si>
   <si>
@@ -1353,18 +1326,9 @@
     <t>D1065</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12.存储上下料位Z1轴取放料点WAIT</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 12.NG下料点Z1轴放料点</t>
   </si>
   <si>
-    <t>8改10</t>
-  </si>
-  <si>
-    <t>2改10</t>
-  </si>
-  <si>
     <t>D227</t>
   </si>
   <si>
@@ -1530,21 +1494,12 @@
     <t>Z2伺服 13.试漏完成存储位Z2轴点</t>
   </si>
   <si>
-    <t>原14 16改成18 19</t>
-  </si>
-  <si>
     <t>M276</t>
   </si>
   <si>
     <t>D1075</t>
   </si>
   <si>
-    <t>16改19</t>
-  </si>
-  <si>
-    <t>10改19</t>
-  </si>
-  <si>
     <t>M277</t>
   </si>
   <si>
@@ -1558,9 +1513,6 @@
   </si>
   <si>
     <t>D1077</t>
-  </si>
-  <si>
-    <t>10以后加1</t>
   </si>
   <si>
     <t>M279</t>
@@ -4290,9 +4242,6 @@
     <t xml:space="preserve"> 3.存储上下料位Y2轴取放料判断点</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.存储上下料位Z2轴取放料判断点</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 8.抽检工位Z1轴取放料判断点</t>
   </si>
   <si>
@@ -4357,6 +4306,74 @@
   </si>
   <si>
     <t>Z1伺服 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.存储上下料位Z1轴取料点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.存储上下料位Z1轴放料点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.存储上下料位Z2轴放料空捞点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.存储上下料位Y1轴放料点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.存储上下料位Z1轴放料点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12.存储上下料位Z1轴放料点WAIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20.存储上下料位Z1轴取料点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20.存储上下料位Z1轴取料点wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11.存储上下料位Y1轴取料点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25.试漏完成存储位Z2轴点放料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28.试漏完成存储位Z2轴点取料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24.试漏完成存储位Z1轴点空捞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.试漏完成存储位Z2轴点放料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26.试漏完成存储位Z2轴点WAIT放料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.试漏完成存储位Z2轴点WAIT放取料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.试漏完成存储位Y2轴点放料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.试漏完成存储位Y2轴点取料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4483,7 +4500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4517,6 +4534,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4528,12 +4557,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4804,8 +4827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I413" workbookViewId="0">
-      <selection activeCell="N429" sqref="N429"/>
+    <sheetView tabSelected="1" topLeftCell="E238" workbookViewId="0">
+      <selection activeCell="L150" sqref="L150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4818,21 +4841,21 @@
     <col min="6" max="7" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="15.75" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="12" max="12" width="38.125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="45.125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="38.125" customWidth="1"/>
+    <col min="13" max="13" width="45.125" customWidth="1"/>
     <col min="14" max="14" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="11">
+      <c r="A1" s="15">
         <v>224</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
       <c r="H1" t="s">
         <v>0</v>
       </c>
@@ -4977,7 +5000,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1410</v>
+        <v>1394</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>24</v>
@@ -4986,7 +5009,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1411</v>
+        <v>1395</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>25</v>
@@ -5062,7 +5085,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1412</v>
+        <v>1396</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>37</v>
@@ -5132,7 +5155,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1413</v>
+        <v>1397</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>55</v>
@@ -5191,7 +5214,7 @@
         <v>68</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1414</v>
+        <v>1398</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>67</v>
@@ -5302,433 +5325,442 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>101</v>
+      <c r="E15" s="4" t="s">
+        <v>1438</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" t="s">
         <v>109</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>110</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>111</v>
-      </c>
-      <c r="M16" t="s">
-        <v>112</v>
-      </c>
-      <c r="N16" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="4" t="s">
+        <v>1439</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1415</v>
+        <v>1399</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" t="s">
+        <v>120</v>
+      </c>
+      <c r="L18" t="s">
         <v>121</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>122</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>123</v>
-      </c>
-      <c r="M18" t="s">
-        <v>124</v>
-      </c>
-      <c r="N18" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1416</v>
+        <v>1400</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1417</v>
+        <v>1401</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" t="s">
         <v>132</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
         <v>133</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>134</v>
-      </c>
-      <c r="M20" t="s">
-        <v>135</v>
-      </c>
-      <c r="N20" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21" t="s">
         <v>140</v>
-      </c>
-      <c r="I21" t="s">
-        <v>141</v>
-      </c>
-      <c r="K21" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" t="s">
         <v>146</v>
       </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>147</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>148</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>149</v>
-      </c>
-      <c r="M22" t="s">
-        <v>150</v>
-      </c>
-      <c r="N22" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" t="s">
         <v>155</v>
-      </c>
-      <c r="I23" t="s">
-        <v>156</v>
-      </c>
-      <c r="K23" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I24" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" t="s">
         <v>161</v>
       </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>162</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="s">
         <v>163</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
         <v>164</v>
-      </c>
-      <c r="M24" t="s">
-        <v>165</v>
-      </c>
-      <c r="N24" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1434</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" t="s">
+        <v>173</v>
+      </c>
+      <c r="L26" t="s">
+        <v>174</v>
+      </c>
+      <c r="M26" t="s">
         <v>175</v>
-      </c>
-      <c r="K26" t="s">
-        <v>176</v>
-      </c>
-      <c r="L26" t="s">
-        <v>177</v>
-      </c>
-      <c r="M26" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1432</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>185</v>
+      <c r="A28" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1436</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K28" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M28" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K29" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1433</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K30" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L30" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M30" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="4" t="s">
+        <v>1437</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I31" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K31" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
@@ -5740,48 +5772,48 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I32" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K32" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L32" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H33" t="s">
+        <v>202</v>
+      </c>
+      <c r="I33" t="s">
+        <v>203</v>
+      </c>
+      <c r="K33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="15">
+        <v>222</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="H34" t="s">
+        <v>205</v>
+      </c>
+      <c r="I34" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" t="s">
         <v>207</v>
       </c>
-      <c r="I33" t="s">
+      <c r="L34" t="s">
         <v>208</v>
-      </c>
-      <c r="K33" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="11">
-        <v>222</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="H34" t="s">
-        <v>210</v>
-      </c>
-      <c r="I34" t="s">
-        <v>211</v>
-      </c>
-      <c r="K34" t="s">
-        <v>212</v>
-      </c>
-      <c r="L34" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
@@ -5801,13 +5833,13 @@
         <v>6</v>
       </c>
       <c r="H35" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I35" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K35" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
@@ -5827,414 +5859,414 @@
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I36" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K36" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L36" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="H37" t="s">
+        <v>218</v>
+      </c>
+      <c r="I37" t="s">
+        <v>219</v>
+      </c>
+      <c r="K37" t="s">
         <v>220</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="H37" t="s">
-        <v>223</v>
-      </c>
-      <c r="I37" t="s">
-        <v>224</v>
-      </c>
-      <c r="K37" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" t="s">
         <v>226</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="I38" t="s">
+        <v>219</v>
+      </c>
+      <c r="K38" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="L38" t="s">
         <v>228</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="H38" t="s">
-        <v>231</v>
-      </c>
-      <c r="I38" t="s">
-        <v>224</v>
-      </c>
-      <c r="K38" t="s">
-        <v>232</v>
-      </c>
-      <c r="L38" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H39" t="s">
         <v>234</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="K39" t="s">
         <v>235</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="H39" t="s">
-        <v>239</v>
-      </c>
-      <c r="K39" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H40" t="s">
         <v>241</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="K40" t="s">
         <v>242</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="H40" t="s">
-        <v>246</v>
-      </c>
-      <c r="K40" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41" t="s">
         <v>248</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="H41" t="s">
         <v>249</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="K41" t="s">
         <v>250</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>1435</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G41" t="s">
-        <v>253</v>
-      </c>
-      <c r="H41" t="s">
-        <v>254</v>
-      </c>
-      <c r="K41" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="H42" t="s">
         <v>257</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="K42" t="s">
         <v>258</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H42" t="s">
-        <v>262</v>
-      </c>
-      <c r="K42" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1431</v>
+        <v>1414</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G43" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H43" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K43" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H44" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K44" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G45" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H45" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K45" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1408</v>
+        <v>1392</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H46" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K46" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1409</v>
+        <v>1393</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G47" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H47" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K47" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H48" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K48" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A49" s="16" t="s">
-        <v>1432</v>
+      <c r="A49" s="4" t="s">
+        <v>1415</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1404</v>
+        <v>1388</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1430</v>
+        <v>1413</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G49" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H49" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K49" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A50" s="16" t="s">
-        <v>1433</v>
+      <c r="A50" s="4" t="s">
+        <v>1416</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1405</v>
+        <v>1389</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H50" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K50" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="4" t="s">
-        <v>1406</v>
+        <v>1390</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G51" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H51" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I51" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K51" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="4" t="s">
-        <v>1407</v>
+        <v>1391</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H52" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I52" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K52" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L52" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M52" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N52" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
@@ -6244,63 +6276,63 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G53" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H53" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I53" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="K53" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F54" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H54" t="s">
+        <v>319</v>
+      </c>
+      <c r="I54" t="s">
+        <v>320</v>
+      </c>
+      <c r="K54" t="s">
+        <v>321</v>
+      </c>
+      <c r="L54" t="s">
+        <v>322</v>
+      </c>
+      <c r="M54" t="s">
         <v>323</v>
       </c>
-      <c r="H54" t="s">
+      <c r="N54" t="s">
         <v>324</v>
       </c>
-      <c r="I54" t="s">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A55" s="18">
+        <v>223</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="K54" t="s">
+      <c r="H55" t="s">
         <v>326</v>
       </c>
-      <c r="L54" t="s">
+      <c r="I55" t="s">
         <v>327</v>
       </c>
-      <c r="M54" t="s">
+      <c r="K55" t="s">
         <v>328</v>
-      </c>
-      <c r="N54" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A55" s="14">
-        <v>223</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="H55" t="s">
-        <v>331</v>
-      </c>
-      <c r="I55" t="s">
-        <v>332</v>
-      </c>
-      <c r="K55" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
@@ -6320,25 +6352,25 @@
         <v>6</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H56" t="s">
+        <v>330</v>
+      </c>
+      <c r="I56" t="s">
+        <v>331</v>
+      </c>
+      <c r="K56" t="s">
+        <v>332</v>
+      </c>
+      <c r="L56" t="s">
+        <v>333</v>
+      </c>
+      <c r="M56" t="s">
         <v>334</v>
       </c>
-      <c r="H56" t="s">
+      <c r="N56" t="s">
         <v>335</v>
-      </c>
-      <c r="I56" t="s">
-        <v>336</v>
-      </c>
-      <c r="K56" t="s">
-        <v>337</v>
-      </c>
-      <c r="L56" t="s">
-        <v>338</v>
-      </c>
-      <c r="M56" t="s">
-        <v>339</v>
-      </c>
-      <c r="N56" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
@@ -6358,4149 +6390,4132 @@
         <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H57" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I57" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="K57" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H58" t="s">
+        <v>344</v>
+      </c>
+      <c r="I58" t="s">
         <v>345</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="K58" t="s">
         <v>346</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="D58" s="7" t="s">
+      <c r="L58" t="s">
         <v>347</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="M58" t="s">
         <v>348</v>
       </c>
-      <c r="H58" t="s">
+      <c r="N58" t="s">
         <v>349</v>
       </c>
-      <c r="I58" t="s">
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A59" s="4" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="K58" t="s">
+      <c r="G59" t="s">
         <v>351</v>
       </c>
-      <c r="L58" t="s">
+      <c r="H59" t="s">
         <v>352</v>
       </c>
-      <c r="M58" t="s">
+      <c r="I59" t="s">
         <v>353</v>
       </c>
-      <c r="N58" t="s">
+      <c r="K59" t="s">
         <v>354</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A59" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G59" t="s">
-        <v>359</v>
-      </c>
-      <c r="H59" t="s">
-        <v>360</v>
-      </c>
-      <c r="I59" t="s">
-        <v>361</v>
-      </c>
-      <c r="K59" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H60" t="s">
+        <v>360</v>
+      </c>
+      <c r="I60" t="s">
+        <v>361</v>
+      </c>
+      <c r="K60" t="s">
+        <v>362</v>
+      </c>
+      <c r="L60" t="s">
         <v>363</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="M60" t="s">
         <v>364</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="N60" t="s">
         <v>365</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H60" t="s">
-        <v>369</v>
-      </c>
-      <c r="I60" t="s">
-        <v>370</v>
-      </c>
-      <c r="K60" t="s">
-        <v>371</v>
-      </c>
-      <c r="L60" t="s">
-        <v>372</v>
-      </c>
-      <c r="M60" t="s">
-        <v>373</v>
-      </c>
-      <c r="N60" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="6" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>1420</v>
+        <v>367</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>1425</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G61" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H61" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="I61" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="K61" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H62" t="s">
+        <v>381</v>
+      </c>
+      <c r="I62" t="s">
+        <v>382</v>
+      </c>
+      <c r="K62" t="s">
+        <v>383</v>
+      </c>
+      <c r="L62" t="s">
         <v>384</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="M62" t="s">
         <v>385</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="N62" t="s">
         <v>386</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="H62" t="s">
-        <v>390</v>
-      </c>
-      <c r="I62" t="s">
-        <v>391</v>
-      </c>
-      <c r="K62" t="s">
-        <v>392</v>
-      </c>
-      <c r="L62" t="s">
-        <v>393</v>
-      </c>
-      <c r="M62" t="s">
-        <v>394</v>
-      </c>
-      <c r="N62" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G63" t="s">
+        <v>393</v>
+      </c>
+      <c r="H63" t="s">
+        <v>394</v>
+      </c>
+      <c r="I63" t="s">
+        <v>395</v>
+      </c>
+      <c r="K63" t="s">
         <v>396</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="G63" t="s">
-        <v>402</v>
-      </c>
-      <c r="H63" t="s">
-        <v>403</v>
-      </c>
-      <c r="I63" t="s">
-        <v>404</v>
-      </c>
-      <c r="K63" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="6" t="s">
-        <v>1421</v>
+        <v>1404</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H64" t="s">
+        <v>401</v>
+      </c>
+      <c r="I64" t="s">
+        <v>402</v>
+      </c>
+      <c r="K64" t="s">
+        <v>403</v>
+      </c>
+      <c r="L64" t="s">
+        <v>404</v>
+      </c>
+      <c r="M64" t="s">
+        <v>405</v>
+      </c>
+      <c r="N64" t="s">
         <v>406</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H64" t="s">
-        <v>410</v>
-      </c>
-      <c r="I64" t="s">
-        <v>411</v>
-      </c>
-      <c r="K64" t="s">
-        <v>412</v>
-      </c>
-      <c r="L64" t="s">
-        <v>413</v>
-      </c>
-      <c r="M64" t="s">
-        <v>414</v>
-      </c>
-      <c r="N64" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="6" t="s">
-        <v>1423</v>
+        <v>1406</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>1424</v>
+        <v>1407</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G65" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H65" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="I65" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="K65" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H66" t="s">
+        <v>421</v>
+      </c>
+      <c r="I66" t="s">
+        <v>422</v>
+      </c>
+      <c r="K66" t="s">
+        <v>423</v>
+      </c>
+      <c r="L66" t="s">
         <v>424</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="M66" t="s">
         <v>425</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="H66" t="s">
-        <v>430</v>
-      </c>
-      <c r="I66" t="s">
-        <v>431</v>
-      </c>
-      <c r="K66" t="s">
-        <v>432</v>
-      </c>
-      <c r="L66" t="s">
-        <v>433</v>
-      </c>
-      <c r="M66" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="6" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="D67" s="7"/>
+        <v>428</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>1431</v>
+      </c>
       <c r="E67" s="7"/>
       <c r="F67" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G67" t="s">
+        <v>430</v>
+      </c>
+      <c r="H67" t="s">
+        <v>431</v>
+      </c>
+      <c r="I67" t="s">
+        <v>432</v>
+      </c>
+      <c r="K67" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A68" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H68" t="s">
+        <v>436</v>
+      </c>
+      <c r="I68" t="s">
+        <v>437</v>
+      </c>
+      <c r="K68" t="s">
         <v>438</v>
       </c>
-      <c r="G67" t="s">
+      <c r="L68" t="s">
         <v>439</v>
       </c>
-      <c r="H67" t="s">
+      <c r="M68" t="s">
         <v>440</v>
-      </c>
-      <c r="I67" t="s">
-        <v>441</v>
-      </c>
-      <c r="K67" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A68" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="H68" t="s">
-        <v>448</v>
-      </c>
-      <c r="I68" t="s">
-        <v>449</v>
-      </c>
-      <c r="K68" t="s">
-        <v>450</v>
-      </c>
-      <c r="L68" t="s">
-        <v>451</v>
-      </c>
-      <c r="M68" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="6" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="2" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G69" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="H69" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="I69" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="K69" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="6" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1426</v>
+        <v>1409</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="2" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="H70" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="I70" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="K70" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="L70" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="M70" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="2" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G71" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="H71" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="I71" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="K71" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1427</v>
+        <v>1410</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="2" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="H72" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="K72" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="L72" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
-        <v>1428</v>
+        <v>1411</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="2" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="G73" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H73" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="K73" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
-        <v>1429</v>
+        <v>1412</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="H74" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="K74" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="L74" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75" s="6" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="H75" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K75" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A76" s="4" t="s">
+        <v>1429</v>
+      </c>
       <c r="H76" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="K76" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="L76" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>445</v>
-      </c>
-      <c r="B77" t="s">
-        <v>446</v>
-      </c>
-      <c r="C77" t="s">
-        <v>502</v>
+      <c r="A77" s="4" t="s">
+        <v>1430</v>
       </c>
       <c r="H77" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="K77" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>505</v>
-      </c>
-      <c r="B78" t="s">
-        <v>506</v>
-      </c>
       <c r="H78" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="K78" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="L78" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H79" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="K79" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>512</v>
-      </c>
-      <c r="B80" t="s">
-        <v>512</v>
-      </c>
       <c r="H80" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="K80" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
     </row>
     <row r="81" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F81" s="3"/>
       <c r="H81" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="I81" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="K81" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="82" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F82" s="3"/>
       <c r="H82" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="I82" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="K82" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F83" s="3"/>
       <c r="H83" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="I83" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="K83" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
     </row>
     <row r="84" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F84" s="3"/>
       <c r="H84" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="I84" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="K84" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
     </row>
     <row r="85" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F85" s="3"/>
       <c r="H85" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="I85" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="K85" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="86" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F86" s="3"/>
       <c r="H86" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="I86" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="K86" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
     </row>
     <row r="87" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F87" s="3"/>
       <c r="H87" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="I87" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="K87" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="88" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H88" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="I88" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="K88" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H89" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="I89" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="K89" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="90" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H90" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="I90" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="K90" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="91" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H91" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="I91" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="K91" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
     </row>
     <row r="92" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H92" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="I92" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="K92" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="L92" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="M92" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="N92" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
     </row>
     <row r="93" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H93" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="I93" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="K93" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
     </row>
     <row r="94" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H94" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="I94" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="K94" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="L94" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="M94" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="N94" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="95" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H95" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="I95" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="K95" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
     </row>
     <row r="96" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H96" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="I96" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="K96" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="L96" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="M96" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="N96" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
     </row>
     <row r="97" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F97" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="G97" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="H97" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="I97" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="K97" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
     </row>
     <row r="98" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F98" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="H98" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="I98" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="K98" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="L98" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="M98" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="N98" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="99" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F99" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="H99" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="I99" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="K99" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="100" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F100" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="H100" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="I100" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="K100" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="L100" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="M100" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="N100" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
     </row>
     <row r="101" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F101" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="H101" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="I101" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="K101" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F102" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="H102" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="K102" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="L102" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="M102" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="N102" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
     </row>
     <row r="103" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F103" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="H103" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="K103" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="104" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F104" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="H104" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="K104" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="L104" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="M104" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="N104" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
     </row>
     <row r="105" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F105" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="H105" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="K105" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
     </row>
     <row r="106" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F106" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="H106" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="K106" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="L106" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="M106" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="N106" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="107" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F107" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="H107" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="K107" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="108" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F108" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="H108" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="K108" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="L108" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="M108" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="N108" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
     </row>
     <row r="109" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F109" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="H109" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="K109" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
     </row>
     <row r="110" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F110" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="H110" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="K110" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="L110" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="M110" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="N110" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
     </row>
     <row r="111" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F111" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="H111" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="I111" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="K111" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
     </row>
     <row r="112" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F112" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="H112" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="I112" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="K112" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="L112" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="M112" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="N112" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
     </row>
     <row r="113" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F113" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="H113" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="I113" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="K113" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
     </row>
     <row r="114" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F114" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="H114" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="I114" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="K114" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="L114" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="M114" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="N114" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
     </row>
     <row r="115" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F115" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="H115" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="I115" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="K115" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
     </row>
     <row r="116" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F116" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="H116" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="I116" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="K116" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="L116" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="M116" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="N116" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
     </row>
     <row r="117" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F117" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="H117" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="I117" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="K117" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
     </row>
     <row r="118" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F118" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="H118" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="K118" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="L118" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="M118" t="s">
-        <v>679</v>
-      </c>
-      <c r="N118" s="15" t="s">
-        <v>1436</v>
+        <v>663</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>1419</v>
       </c>
     </row>
     <row r="119" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H119" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="K119" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
     </row>
     <row r="120" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H120" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="K120" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="L120" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="M120" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
     </row>
     <row r="121" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H121" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="K121" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
     </row>
     <row r="122" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H122" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="K122" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="L122" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="M122" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
     </row>
     <row r="123" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H123" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="K123" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="124" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H124" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="K124" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="L124" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="M124" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
     </row>
     <row r="125" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H125" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="K125" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
     </row>
     <row r="126" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H126" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="K126" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="L126" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="M126" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
     </row>
     <row r="127" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H127" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="K127" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
     </row>
     <row r="128" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H128" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="K128" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="L128" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="M128" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
     </row>
     <row r="129" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H129" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="K129" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
     </row>
     <row r="130" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H130" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="K130" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="L130" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
     </row>
     <row r="131" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H131" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="I131" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="K131" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
     </row>
     <row r="132" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H132" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="I132" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="K132" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L132" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="133" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H133" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="I133" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="K133" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
     </row>
     <row r="134" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H134" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I134" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="K134" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="L134" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
     </row>
     <row r="135" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H135" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="I135" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="K135" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
     </row>
     <row r="136" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H136" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="I136" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="K136" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="L136" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
     </row>
     <row r="137" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H137" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="I137" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="K137" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
     </row>
     <row r="138" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H138" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="K138" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="L138" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
     </row>
     <row r="139" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H139" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="K139" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
     </row>
     <row r="140" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H140" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="K140" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="L140" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
     </row>
     <row r="141" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H141" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="I141" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="K141" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
     </row>
     <row r="142" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H142" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="I142" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="K142" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="L142" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
     </row>
     <row r="143" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H143" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="I143" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="K143" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="144" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H144" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="I144" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="K144" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="L144" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
     </row>
     <row r="145" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H145" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="I145" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="K145" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
     </row>
     <row r="146" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H146" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="I146" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="K146" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
     </row>
     <row r="147" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H147" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="I147" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="K147" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
     </row>
     <row r="148" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H148" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="K148" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
     </row>
     <row r="149" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H149" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="K149" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
     </row>
     <row r="150" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H150" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="K150" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
     </row>
     <row r="151" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H151" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="I151" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="K151" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
     </row>
     <row r="152" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H152" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="I152" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="K152" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="L152" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="M152" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="N152" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
     </row>
     <row r="153" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H153" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="I153" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="K153" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
     </row>
     <row r="154" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H154" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="I154" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="K154" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="L154" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="M154" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="N154" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
     </row>
     <row r="155" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H155" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="I155" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="K155" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
     </row>
     <row r="156" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H156" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="I156" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="K156" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="L156" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="M156" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="N156" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
     </row>
     <row r="157" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H157" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="I157" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="K157" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
     </row>
     <row r="158" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H158" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="K158" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="L158" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="M158" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="N158" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
     </row>
     <row r="159" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H159" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="K159" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
     </row>
     <row r="160" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H160" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="K160" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="L160" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="M160" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="N160" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
     </row>
     <row r="161" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H161" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="I161" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="K161" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
     </row>
     <row r="162" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H162" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="I162" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="K162" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="L162" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="M162" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="N162" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
     </row>
     <row r="163" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H163" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="I163" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="K163" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
     </row>
     <row r="164" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H164" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="I164" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="K164" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="L164" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="M164" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="N164" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="165" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H165" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="I165" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="K165" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
     </row>
     <row r="166" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H166" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="I166" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="K166" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="L166" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="M166" t="s">
-        <v>841</v>
-      </c>
-      <c r="N166" s="15" t="s">
-        <v>1437</v>
+        <v>825</v>
+      </c>
+      <c r="N166" s="11" t="s">
+        <v>1420</v>
       </c>
     </row>
     <row r="167" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H167" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="I167" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="K167" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
     </row>
     <row r="168" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H168" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="K168" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="L168" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="M168" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
     </row>
     <row r="169" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H169" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="K169" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
     </row>
     <row r="170" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H170" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="K170" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="L170" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="M170" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
     </row>
     <row r="171" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H171" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="K171" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
     </row>
     <row r="172" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H172" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="K172" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="L172" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
     </row>
     <row r="173" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H173" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="K173" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
     </row>
     <row r="174" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H174" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="K174" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="L174" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
     </row>
     <row r="175" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H175" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="K175" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
     </row>
     <row r="176" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H176" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="K176" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="L176" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="177" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H177" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="K177" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
     </row>
     <row r="178" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H178" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="K178" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="L178" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
     </row>
     <row r="179" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H179" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="K179" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
     </row>
     <row r="180" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H180" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="K180" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
     </row>
     <row r="181" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H181" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="K181" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
     </row>
     <row r="182" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H182" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="K182" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
     </row>
     <row r="183" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H183" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="K183" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
     </row>
     <row r="184" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H184" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="K184" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
     </row>
     <row r="185" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H185" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="K185" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
     </row>
     <row r="186" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H186" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="K186" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
     </row>
     <row r="187" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H187" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="K187" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
     </row>
     <row r="188" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H188" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="K188" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
     </row>
     <row r="189" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H189" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="K189" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
     </row>
     <row r="190" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H190" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="K190" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
     </row>
     <row r="191" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H191" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="K191" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
     </row>
     <row r="192" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H192" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="K192" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="L192" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="M192" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="N192" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
     </row>
     <row r="193" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H193" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="K193" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
     </row>
     <row r="194" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H194" t="s">
-        <v>906</v>
+        <v>890</v>
       </c>
       <c r="K194" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="L194" t="s">
-        <v>908</v>
+        <v>892</v>
       </c>
       <c r="M194" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
       <c r="N194" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
     </row>
     <row r="195" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H195" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
       <c r="K195" t="s">
-        <v>912</v>
+        <v>896</v>
       </c>
     </row>
     <row r="196" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H196" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="K196" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
       <c r="L196" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
       <c r="M196" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="N196" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
     </row>
     <row r="197" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H197" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
       <c r="K197" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
     </row>
     <row r="198" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H198" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="K198" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
       <c r="L198" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="M198" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="N198" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
     </row>
     <row r="199" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H199" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
       <c r="K199" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
     </row>
     <row r="200" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H200" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="K200" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
       <c r="L200" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
       <c r="M200" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="N200" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
     </row>
     <row r="201" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H201" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="K201" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
     </row>
     <row r="202" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H202" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="K202" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="L202" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="M202" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="N202" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
     </row>
     <row r="203" spans="8:14" x14ac:dyDescent="0.15">
       <c r="K203" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
     </row>
     <row r="204" spans="8:14" x14ac:dyDescent="0.15">
       <c r="K204" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="L204" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
       <c r="M204" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
       <c r="N204" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
     </row>
     <row r="205" spans="8:14" x14ac:dyDescent="0.15">
       <c r="K205" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
     </row>
     <row r="206" spans="8:14" x14ac:dyDescent="0.15">
       <c r="K206" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="L206" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
       <c r="M206" t="s">
-        <v>947</v>
+        <v>931</v>
       </c>
     </row>
     <row r="207" spans="8:14" x14ac:dyDescent="0.15">
       <c r="K207" t="s">
-        <v>948</v>
+        <v>932</v>
       </c>
     </row>
     <row r="208" spans="8:14" x14ac:dyDescent="0.15">
       <c r="K208" t="s">
-        <v>949</v>
+        <v>933</v>
       </c>
       <c r="L208" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="M208" t="s">
-        <v>951</v>
+        <v>935</v>
       </c>
     </row>
     <row r="209" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K209" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
     </row>
     <row r="210" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K210" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
       <c r="L210" t="s">
-        <v>954</v>
+        <v>938</v>
       </c>
       <c r="M210" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
     </row>
     <row r="211" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K211" t="s">
-        <v>956</v>
+        <v>940</v>
       </c>
     </row>
     <row r="212" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K212" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
       <c r="L212" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
     </row>
     <row r="213" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K213" t="s">
-        <v>959</v>
+        <v>943</v>
       </c>
     </row>
     <row r="214" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K214" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
       <c r="L214" t="s">
-        <v>961</v>
+        <v>945</v>
       </c>
     </row>
     <row r="215" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K215" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
     </row>
     <row r="216" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K216" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
       <c r="L216" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
     </row>
     <row r="217" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K217" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
     </row>
     <row r="218" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K218" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="L218" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
     </row>
     <row r="219" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K219" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
     </row>
     <row r="220" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K220" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
     </row>
     <row r="221" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K221" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
     </row>
     <row r="222" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K222" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
     </row>
     <row r="223" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K223" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
     </row>
     <row r="224" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K224" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
     </row>
     <row r="225" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K225" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
     </row>
     <row r="226" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K226" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
     </row>
     <row r="227" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K227" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
     </row>
     <row r="228" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K228" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
     </row>
     <row r="229" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K229" t="s">
-        <v>978</v>
+        <v>962</v>
       </c>
     </row>
     <row r="230" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K230" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
     </row>
     <row r="231" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K231" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
     </row>
     <row r="232" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K232" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="L232" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
     </row>
     <row r="233" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K233" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
     </row>
     <row r="234" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K234" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
       <c r="L234" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
     </row>
     <row r="235" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K235" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
     </row>
     <row r="236" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K236" t="s">
-        <v>987</v>
+        <v>971</v>
       </c>
       <c r="L236" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="237" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K237" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
     </row>
     <row r="238" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K238" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
       <c r="L238" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
     </row>
     <row r="239" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K239" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
     </row>
     <row r="240" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K240" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="L240" t="s">
-        <v>994</v>
+        <v>978</v>
       </c>
     </row>
     <row r="241" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K241" t="s">
-        <v>995</v>
+        <v>979</v>
       </c>
     </row>
     <row r="242" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K242" t="s">
-        <v>996</v>
+        <v>980</v>
       </c>
       <c r="L242" t="s">
-        <v>997</v>
+        <v>981</v>
       </c>
     </row>
     <row r="243" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K243" t="s">
-        <v>998</v>
+        <v>982</v>
       </c>
     </row>
     <row r="244" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K244" t="s">
-        <v>999</v>
+        <v>983</v>
       </c>
     </row>
     <row r="245" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K245" t="s">
-        <v>1000</v>
+        <v>984</v>
       </c>
     </row>
     <row r="246" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K246" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
     </row>
     <row r="247" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K247" t="s">
-        <v>1002</v>
+        <v>986</v>
       </c>
     </row>
     <row r="248" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K248" t="s">
-        <v>1003</v>
+        <v>987</v>
       </c>
     </row>
     <row r="249" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K249" t="s">
-        <v>1004</v>
+        <v>988</v>
       </c>
     </row>
     <row r="250" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K250" t="s">
-        <v>1005</v>
+        <v>989</v>
       </c>
     </row>
     <row r="251" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K251" t="s">
-        <v>1006</v>
+        <v>990</v>
       </c>
     </row>
     <row r="252" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K252" t="s">
-        <v>1007</v>
+        <v>991</v>
       </c>
       <c r="L252" t="s">
-        <v>1008</v>
+        <v>992</v>
       </c>
     </row>
     <row r="253" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K253" t="s">
-        <v>1009</v>
+        <v>993</v>
       </c>
     </row>
     <row r="254" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K254" t="s">
-        <v>1010</v>
+        <v>994</v>
       </c>
       <c r="L254" t="s">
-        <v>1011</v>
+        <v>995</v>
       </c>
     </row>
     <row r="255" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K255" t="s">
-        <v>1012</v>
+        <v>996</v>
       </c>
     </row>
     <row r="256" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K256" t="s">
-        <v>1013</v>
+        <v>997</v>
       </c>
       <c r="L256" t="s">
-        <v>1014</v>
+        <v>998</v>
       </c>
     </row>
     <row r="257" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K257" t="s">
-        <v>1015</v>
+        <v>999</v>
       </c>
     </row>
     <row r="258" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K258" t="s">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="L258" t="s">
-        <v>1017</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="259" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K259" t="s">
-        <v>1018</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="260" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K260" t="s">
-        <v>1019</v>
+        <v>1003</v>
       </c>
       <c r="L260" t="s">
-        <v>1020</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="261" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K261" t="s">
-        <v>1021</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="262" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K262" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
       <c r="L262" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="263" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K263" t="s">
-        <v>1024</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="264" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K264" t="s">
-        <v>1025</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="265" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K265" t="s">
-        <v>1026</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="266" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K266" t="s">
-        <v>1027</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="267" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K267" t="s">
-        <v>1028</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="268" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K268" t="s">
-        <v>1029</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="269" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K269" t="s">
-        <v>1030</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="270" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K270" t="s">
-        <v>1031</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="271" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K271" t="s">
-        <v>1032</v>
+        <v>1016</v>
       </c>
       <c r="L271" t="s">
-        <v>1033</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="272" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K272" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="L272" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="M272" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="N272" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="273" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K273" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="274" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K274" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="L274" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="M274" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="N274" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="275" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K275" t="s">
-        <v>1039</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="276" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K276" t="s">
-        <v>1040</v>
+        <v>1024</v>
       </c>
       <c r="L276" t="s">
-        <v>1041</v>
+        <v>1025</v>
       </c>
       <c r="M276" t="s">
-        <v>1041</v>
+        <v>1025</v>
       </c>
       <c r="N276" t="s">
-        <v>1041</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="277" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K277" t="s">
-        <v>1042</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="278" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K278" t="s">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="L278" t="s">
-        <v>1044</v>
+        <v>1028</v>
       </c>
       <c r="M278" t="s">
-        <v>1044</v>
+        <v>1028</v>
       </c>
       <c r="N278" t="s">
-        <v>1044</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="279" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K279" t="s">
-        <v>1045</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="280" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K280" t="s">
-        <v>1046</v>
+        <v>1030</v>
       </c>
       <c r="L280" t="s">
-        <v>1047</v>
+        <v>1031</v>
       </c>
       <c r="M280" t="s">
-        <v>1047</v>
+        <v>1031</v>
       </c>
       <c r="N280" t="s">
-        <v>1047</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="281" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K281" t="s">
-        <v>1048</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="282" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K282" t="s">
-        <v>1049</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="283" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K283" t="s">
-        <v>1050</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="284" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K284" t="s">
-        <v>1051</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="285" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K285" t="s">
-        <v>1052</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="286" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K286" t="s">
-        <v>1053</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="287" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K287" t="s">
-        <v>1054</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="288" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K288" t="s">
-        <v>1055</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="289" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K289" t="s">
-        <v>1056</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="290" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K290" t="s">
-        <v>1057</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="291" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K291" t="s">
-        <v>1058</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="292" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K292" t="s">
-        <v>1059</v>
+        <v>1043</v>
       </c>
       <c r="L292" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
       <c r="M292" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
       <c r="N292" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="293" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K293" t="s">
-        <v>1061</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="294" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K294" t="s">
-        <v>1062</v>
+        <v>1046</v>
       </c>
       <c r="L294" t="s">
-        <v>1063</v>
+        <v>1047</v>
       </c>
       <c r="M294" t="s">
-        <v>1063</v>
+        <v>1047</v>
       </c>
       <c r="N294" t="s">
-        <v>1063</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="295" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K295" t="s">
-        <v>1064</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="296" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K296" t="s">
-        <v>1065</v>
+        <v>1049</v>
       </c>
       <c r="L296" t="s">
-        <v>1066</v>
+        <v>1050</v>
       </c>
       <c r="M296" t="s">
-        <v>1066</v>
+        <v>1050</v>
       </c>
       <c r="N296" t="s">
-        <v>1066</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="297" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K297" t="s">
-        <v>1067</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="298" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K298" t="s">
-        <v>1068</v>
+        <v>1052</v>
       </c>
       <c r="L298" t="s">
-        <v>1069</v>
+        <v>1053</v>
       </c>
       <c r="M298" t="s">
-        <v>1069</v>
+        <v>1053</v>
       </c>
       <c r="N298" t="s">
-        <v>1069</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="299" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K299" t="s">
-        <v>1070</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="300" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K300" t="s">
-        <v>1071</v>
+        <v>1055</v>
       </c>
       <c r="L300" t="s">
-        <v>1072</v>
+        <v>1056</v>
       </c>
       <c r="M300" t="s">
-        <v>1072</v>
+        <v>1056</v>
       </c>
       <c r="N300" t="s">
-        <v>1072</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="301" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K301" t="s">
-        <v>1073</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="302" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K302" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="303" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K303" t="s">
-        <v>1075</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="304" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K304" t="s">
-        <v>1076</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="305" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K305" t="s">
-        <v>1077</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="306" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K306" t="s">
-        <v>1078</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="307" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K307" t="s">
-        <v>1079</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="308" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K308" t="s">
-        <v>1080</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="309" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K309" t="s">
-        <v>1081</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="310" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K310" t="s">
-        <v>1082</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="311" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K311" t="s">
-        <v>1083</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="312" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K312" t="s">
-        <v>1084</v>
+        <v>1068</v>
       </c>
       <c r="L312" t="s">
-        <v>1085</v>
+        <v>1069</v>
       </c>
       <c r="M312" t="s">
-        <v>1085</v>
+        <v>1069</v>
       </c>
       <c r="N312" t="s">
-        <v>1085</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="313" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K313" t="s">
-        <v>1086</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="314" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K314" t="s">
-        <v>1087</v>
+        <v>1071</v>
       </c>
       <c r="L314" t="s">
-        <v>1088</v>
+        <v>1072</v>
       </c>
       <c r="M314" t="s">
-        <v>1088</v>
+        <v>1072</v>
       </c>
       <c r="N314" t="s">
-        <v>1088</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="315" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K315" t="s">
-        <v>1089</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="316" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K316" t="s">
-        <v>1090</v>
+        <v>1074</v>
       </c>
       <c r="L316" t="s">
-        <v>1091</v>
+        <v>1075</v>
       </c>
       <c r="M316" t="s">
-        <v>1091</v>
+        <v>1075</v>
       </c>
       <c r="N316" t="s">
-        <v>1091</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="317" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K317" t="s">
-        <v>1092</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="318" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K318" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="L318" t="s">
-        <v>1094</v>
+        <v>1078</v>
       </c>
       <c r="M318" t="s">
-        <v>1094</v>
+        <v>1078</v>
       </c>
       <c r="N318" t="s">
-        <v>1094</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="319" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K319" t="s">
-        <v>1095</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="320" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K320" t="s">
-        <v>1096</v>
+        <v>1080</v>
       </c>
       <c r="L320" t="s">
-        <v>1097</v>
+        <v>1081</v>
       </c>
       <c r="M320" t="s">
-        <v>1097</v>
+        <v>1081</v>
       </c>
       <c r="N320" t="s">
-        <v>1097</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="321" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K321" t="s">
-        <v>1098</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="322" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K322" t="s">
-        <v>1099</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="323" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K323" t="s">
-        <v>1100</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="324" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K324" t="s">
-        <v>1101</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="325" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K325" t="s">
-        <v>1102</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="326" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K326" t="s">
-        <v>1103</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="327" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K327" t="s">
-        <v>1104</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="328" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K328" t="s">
-        <v>1105</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="329" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K329" t="s">
-        <v>1106</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="330" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K330" t="s">
-        <v>1107</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="331" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K331" t="s">
-        <v>1108</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="332" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K332" t="s">
-        <v>1109</v>
+        <v>1093</v>
       </c>
       <c r="L332" t="s">
-        <v>1110</v>
+        <v>1094</v>
       </c>
       <c r="M332" t="s">
-        <v>1110</v>
+        <v>1094</v>
       </c>
       <c r="N332" t="s">
-        <v>1110</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="333" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K333" t="s">
-        <v>1111</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="334" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K334" t="s">
-        <v>1112</v>
+        <v>1096</v>
       </c>
       <c r="L334" t="s">
-        <v>1113</v>
+        <v>1097</v>
       </c>
       <c r="M334" t="s">
-        <v>1113</v>
+        <v>1097</v>
       </c>
       <c r="N334" t="s">
-        <v>1113</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="335" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K335" t="s">
-        <v>1114</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="336" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K336" t="s">
-        <v>1115</v>
+        <v>1099</v>
       </c>
       <c r="L336" t="s">
-        <v>1116</v>
+        <v>1100</v>
       </c>
       <c r="M336" t="s">
-        <v>1116</v>
+        <v>1100</v>
       </c>
       <c r="N336" t="s">
-        <v>1116</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="337" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K337" t="s">
-        <v>1117</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="338" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K338" t="s">
-        <v>1118</v>
+        <v>1102</v>
       </c>
       <c r="L338" t="s">
-        <v>1119</v>
+        <v>1103</v>
       </c>
       <c r="M338" t="s">
-        <v>1119</v>
+        <v>1103</v>
       </c>
       <c r="N338" t="s">
-        <v>1119</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="339" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K339" t="s">
-        <v>1120</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="340" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K340" t="s">
-        <v>1121</v>
+        <v>1105</v>
       </c>
       <c r="L340" t="s">
-        <v>1122</v>
+        <v>1106</v>
       </c>
       <c r="M340" t="s">
-        <v>1122</v>
+        <v>1106</v>
       </c>
       <c r="N340" t="s">
-        <v>1122</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="341" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K341" t="s">
-        <v>1123</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="342" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K342" t="s">
-        <v>1124</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="343" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K343" t="s">
-        <v>1125</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="344" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K344" t="s">
-        <v>1126</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="345" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K345" t="s">
-        <v>1127</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="346" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K346" t="s">
-        <v>1128</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="347" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K347" t="s">
-        <v>1129</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="348" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K348" t="s">
-        <v>1130</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="349" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K349" t="s">
-        <v>1131</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="350" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K350" t="s">
-        <v>1132</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="351" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K351" t="s">
-        <v>1133</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="352" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K352" t="s">
-        <v>1134</v>
+        <v>1118</v>
       </c>
       <c r="L352" t="s">
-        <v>1135</v>
+        <v>1119</v>
       </c>
       <c r="M352" t="s">
-        <v>1135</v>
+        <v>1119</v>
       </c>
       <c r="N352" t="s">
-        <v>1135</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="353" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K353" t="s">
-        <v>1136</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="354" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K354" t="s">
-        <v>1137</v>
+        <v>1121</v>
       </c>
       <c r="L354" t="s">
-        <v>1138</v>
+        <v>1122</v>
       </c>
       <c r="M354" t="s">
-        <v>1138</v>
+        <v>1122</v>
       </c>
       <c r="N354" t="s">
-        <v>1138</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="355" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K355" t="s">
-        <v>1139</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="356" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K356" t="s">
-        <v>1140</v>
+        <v>1124</v>
       </c>
       <c r="L356" t="s">
-        <v>1141</v>
+        <v>1125</v>
       </c>
       <c r="M356" t="s">
-        <v>1141</v>
+        <v>1125</v>
       </c>
       <c r="N356" t="s">
-        <v>1141</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="357" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K357" t="s">
-        <v>1142</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="358" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K358" t="s">
-        <v>1143</v>
+        <v>1127</v>
       </c>
       <c r="L358" t="s">
-        <v>1144</v>
+        <v>1128</v>
       </c>
       <c r="M358" t="s">
-        <v>1144</v>
+        <v>1128</v>
       </c>
       <c r="N358" t="s">
-        <v>1144</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="359" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K359" t="s">
-        <v>1145</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="360" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K360" t="s">
-        <v>1146</v>
+        <v>1130</v>
       </c>
       <c r="L360" t="s">
-        <v>1147</v>
+        <v>1131</v>
       </c>
       <c r="M360" t="s">
-        <v>1147</v>
+        <v>1131</v>
       </c>
       <c r="N360" t="s">
-        <v>1147</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="361" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K361" t="s">
-        <v>1148</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="362" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K362" t="s">
-        <v>1149</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="363" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K363" t="s">
-        <v>1150</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="364" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K364" t="s">
-        <v>1151</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="365" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K365" t="s">
-        <v>1152</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="366" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K366" t="s">
-        <v>1153</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="367" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K367" t="s">
-        <v>1154</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="368" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K368" t="s">
-        <v>1155</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="369" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K369" t="s">
-        <v>1156</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="370" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K370" t="s">
-        <v>1157</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="371" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K371" t="s">
-        <v>1158</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="372" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K372" t="s">
-        <v>1159</v>
+        <v>1143</v>
       </c>
       <c r="L372" t="s">
-        <v>1160</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="373" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K373" t="s">
-        <v>1161</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="374" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K374" t="s">
-        <v>1162</v>
+        <v>1146</v>
       </c>
       <c r="L374" t="s">
-        <v>1163</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="375" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K375" t="s">
-        <v>1164</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="376" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K376" t="s">
-        <v>1165</v>
+        <v>1149</v>
       </c>
       <c r="L376" t="s">
-        <v>1166</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="377" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K377" t="s">
-        <v>1167</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="378" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K378" t="s">
-        <v>1168</v>
+        <v>1152</v>
       </c>
       <c r="L378" t="s">
-        <v>1169</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="379" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K379" t="s">
-        <v>1170</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="380" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K380" t="s">
-        <v>1171</v>
+        <v>1155</v>
       </c>
       <c r="L380" t="s">
-        <v>1172</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="381" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K381" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="382" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K382" t="s">
-        <v>1174</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="383" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K383" t="s">
-        <v>1175</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="384" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K384" t="s">
-        <v>1176</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="385" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K385" t="s">
-        <v>1177</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="386" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K386" t="s">
-        <v>1178</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="387" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K387" t="s">
-        <v>1179</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="388" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K388" t="s">
-        <v>1180</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="389" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K389" t="s">
-        <v>1181</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="390" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K390" t="s">
-        <v>1182</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="391" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K391" t="s">
-        <v>1183</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="392" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K392" t="s">
-        <v>1184</v>
+        <v>1168</v>
       </c>
       <c r="L392" t="s">
-        <v>1185</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="393" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K393" t="s">
-        <v>1186</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="394" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K394" t="s">
-        <v>1187</v>
+        <v>1171</v>
       </c>
       <c r="L394" t="s">
-        <v>1188</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="395" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K395" t="s">
-        <v>1189</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="396" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K396" t="s">
-        <v>1190</v>
+        <v>1174</v>
       </c>
       <c r="L396" t="s">
-        <v>1191</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="397" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K397" t="s">
-        <v>1192</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="398" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K398" t="s">
-        <v>1193</v>
+        <v>1177</v>
       </c>
       <c r="L398" t="s">
-        <v>1194</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="399" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K399" t="s">
-        <v>1195</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="400" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K400" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
       <c r="L400" t="s">
-        <v>1197</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="401" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K401" t="s">
-        <v>1198</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="402" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K402" t="s">
-        <v>1199</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="403" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K403" t="s">
-        <v>1200</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="404" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K404" t="s">
-        <v>1201</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="405" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K405" t="s">
-        <v>1202</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="406" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K406" t="s">
-        <v>1203</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="407" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K407" t="s">
-        <v>1204</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="408" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K408" t="s">
-        <v>1205</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="409" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K409" t="s">
-        <v>1206</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="410" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K410" t="s">
-        <v>1207</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="411" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K411" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="412" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K412" t="s">
-        <v>1209</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="413" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K413" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="414" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K414" t="s">
-        <v>1211</v>
+        <v>1195</v>
       </c>
       <c r="L414" t="s">
-        <v>1212</v>
+        <v>1196</v>
       </c>
       <c r="M414" t="s">
-        <v>1213</v>
+        <v>1197</v>
       </c>
       <c r="N414" t="s">
-        <v>1214</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="415" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K415" t="s">
-        <v>1215</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="416" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K416" t="s">
-        <v>1216</v>
+        <v>1200</v>
       </c>
       <c r="L416" t="s">
-        <v>1217</v>
+        <v>1201</v>
       </c>
       <c r="M416" t="s">
-        <v>1218</v>
+        <v>1202</v>
       </c>
       <c r="N416" t="s">
-        <v>1219</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="417" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K417" t="s">
-        <v>1220</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="418" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K418" t="s">
-        <v>1221</v>
+        <v>1205</v>
       </c>
       <c r="L418" t="s">
-        <v>1222</v>
+        <v>1206</v>
       </c>
       <c r="M418" t="s">
-        <v>1223</v>
+        <v>1207</v>
       </c>
       <c r="N418" t="s">
-        <v>1224</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="419" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K419" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="420" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K420" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="L420" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="M420" t="s">
-        <v>1228</v>
+        <v>1212</v>
       </c>
       <c r="N420" t="s">
-        <v>1229</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="421" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K421" t="s">
-        <v>1230</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="422" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K422" t="s">
-        <v>1231</v>
+        <v>1215</v>
       </c>
       <c r="L422" t="s">
-        <v>1232</v>
+        <v>1216</v>
       </c>
       <c r="M422" t="s">
-        <v>1233</v>
+        <v>1217</v>
       </c>
       <c r="N422" t="s">
-        <v>1234</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="423" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K423" t="s">
-        <v>1235</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="424" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K424" t="s">
-        <v>1236</v>
+        <v>1220</v>
       </c>
       <c r="L424" t="s">
-        <v>1237</v>
+        <v>1221</v>
       </c>
       <c r="M424" t="s">
-        <v>1238</v>
+        <v>1222</v>
       </c>
       <c r="N424" t="s">
-        <v>1239</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="425" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K425" t="s">
-        <v>1240</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="426" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K426" t="s">
-        <v>1241</v>
+        <v>1225</v>
       </c>
       <c r="L426" t="s">
-        <v>1242</v>
+        <v>1226</v>
       </c>
       <c r="M426" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N426" s="15" t="s">
-        <v>1438</v>
+        <v>1227</v>
+      </c>
+      <c r="N426" s="11" t="s">
+        <v>1421</v>
       </c>
     </row>
     <row r="427" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K427" t="s">
-        <v>1244</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="428" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K428" t="s">
-        <v>1245</v>
+        <v>1229</v>
       </c>
       <c r="L428" t="s">
-        <v>1246</v>
+        <v>1230</v>
       </c>
       <c r="M428" t="s">
-        <v>1247</v>
-      </c>
-      <c r="N428" s="15" t="s">
-        <v>1439</v>
+        <v>1231</v>
+      </c>
+      <c r="N428" s="11" t="s">
+        <v>1422</v>
       </c>
     </row>
     <row r="429" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K429" t="s">
-        <v>1248</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="430" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K430" t="s">
-        <v>1249</v>
+        <v>1233</v>
       </c>
       <c r="L430" t="s">
-        <v>1250</v>
+        <v>1234</v>
       </c>
       <c r="M430" t="s">
-        <v>1251</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="431" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K431" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="432" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K432" t="s">
-        <v>1253</v>
+        <v>1237</v>
       </c>
       <c r="L432" t="s">
-        <v>1254</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="433" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K433" t="s">
-        <v>1255</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="434" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K434" t="s">
-        <v>1256</v>
+        <v>1240</v>
       </c>
       <c r="L434" t="s">
-        <v>1257</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="435" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K435" t="s">
-        <v>1258</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="436" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K436" t="s">
-        <v>1259</v>
+        <v>1243</v>
       </c>
       <c r="L436" t="s">
-        <v>1260</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="437" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K437" t="s">
-        <v>1261</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="438" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K438" t="s">
-        <v>1262</v>
+        <v>1246</v>
       </c>
       <c r="L438" t="s">
-        <v>1263</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="439" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K439" t="s">
-        <v>1264</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="440" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K440" t="s">
-        <v>1265</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="441" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K441" t="s">
-        <v>1266</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="442" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K442" t="s">
-        <v>1267</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="443" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K443" t="s">
-        <v>1268</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="444" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K444" t="s">
-        <v>1269</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="445" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K445" t="s">
-        <v>1270</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="446" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K446" t="s">
-        <v>1271</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="447" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K447" t="s">
-        <v>1272</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="448" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K448" t="s">
-        <v>1273</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="449" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K449" t="s">
-        <v>1274</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="450" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K450" t="s">
-        <v>1275</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="451" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K451" t="s">
-        <v>1276</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="452" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K452" t="s">
-        <v>1277</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="453" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K453" t="s">
-        <v>1278</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="454" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K454" t="s">
-        <v>1279</v>
+        <v>1263</v>
       </c>
       <c r="L454" t="s">
-        <v>1280</v>
+        <v>1264</v>
       </c>
       <c r="M454" t="s">
-        <v>1281</v>
+        <v>1265</v>
       </c>
       <c r="N454" t="s">
-        <v>1282</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="455" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K455" t="s">
-        <v>1283</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="456" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K456" t="s">
-        <v>1284</v>
+        <v>1268</v>
       </c>
       <c r="L456" t="s">
-        <v>1285</v>
+        <v>1269</v>
       </c>
       <c r="M456" t="s">
-        <v>1286</v>
+        <v>1270</v>
       </c>
       <c r="N456" t="s">
-        <v>1287</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="457" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K457" t="s">
-        <v>1288</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="458" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K458" t="s">
-        <v>1289</v>
+        <v>1273</v>
       </c>
       <c r="L458" t="s">
-        <v>1290</v>
+        <v>1274</v>
       </c>
       <c r="M458" t="s">
-        <v>1291</v>
+        <v>1275</v>
       </c>
       <c r="N458" t="s">
-        <v>1292</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="459" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K459" t="s">
-        <v>1293</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="460" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K460" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="L460" t="s">
-        <v>1295</v>
+        <v>1279</v>
       </c>
       <c r="M460" t="s">
-        <v>1296</v>
+        <v>1280</v>
       </c>
       <c r="N460" t="s">
-        <v>1297</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="461" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K461" t="s">
-        <v>1298</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="462" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K462" t="s">
-        <v>1299</v>
+        <v>1283</v>
       </c>
       <c r="L462" t="s">
-        <v>1300</v>
+        <v>1284</v>
       </c>
       <c r="M462" t="s">
-        <v>1301</v>
+        <v>1285</v>
       </c>
       <c r="N462" t="s">
-        <v>1302</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="463" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K463" t="s">
-        <v>1303</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="464" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K464" t="s">
-        <v>1304</v>
+        <v>1288</v>
       </c>
       <c r="L464" t="s">
-        <v>1305</v>
+        <v>1289</v>
       </c>
       <c r="M464" t="s">
-        <v>1306</v>
+        <v>1290</v>
       </c>
       <c r="N464" t="s">
-        <v>1307</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="465" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K465" t="s">
-        <v>1308</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="466" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K466" t="s">
-        <v>1309</v>
+        <v>1293</v>
       </c>
       <c r="L466" t="s">
-        <v>1310</v>
+        <v>1294</v>
       </c>
       <c r="M466" t="s">
-        <v>1311</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="467" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K467" t="s">
-        <v>1312</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="468" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K468" t="s">
-        <v>1313</v>
+        <v>1297</v>
       </c>
       <c r="L468" t="s">
-        <v>1314</v>
+        <v>1298</v>
       </c>
       <c r="M468" t="s">
-        <v>1315</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="469" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K469" t="s">
-        <v>1316</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="470" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K470" t="s">
-        <v>1317</v>
+        <v>1301</v>
       </c>
       <c r="L470" t="s">
-        <v>1318</v>
+        <v>1302</v>
       </c>
       <c r="M470" t="s">
-        <v>1319</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="471" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K471" t="s">
-        <v>1320</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="472" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K472" t="s">
-        <v>1321</v>
+        <v>1305</v>
       </c>
       <c r="L472" t="s">
-        <v>1322</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="473" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K473" t="s">
-        <v>1323</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="474" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K474" t="s">
-        <v>1324</v>
+        <v>1308</v>
       </c>
       <c r="L474" t="s">
-        <v>1325</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="475" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K475" t="s">
-        <v>1326</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="476" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K476" t="s">
-        <v>1327</v>
+        <v>1311</v>
       </c>
       <c r="L476" t="s">
-        <v>1328</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="477" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K477" t="s">
-        <v>1329</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="478" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K478" t="s">
-        <v>1330</v>
+        <v>1314</v>
       </c>
       <c r="L478" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="479" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K479" t="s">
-        <v>1332</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="480" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K480" t="s">
-        <v>1333</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="481" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K481" t="s">
-        <v>1334</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="482" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K482" t="s">
-        <v>1335</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="483" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K483" t="s">
-        <v>1336</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="484" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K484" t="s">
-        <v>1337</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="485" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K485" t="s">
-        <v>1338</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="486" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K486" t="s">
-        <v>1339</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="487" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K487" t="s">
-        <v>1340</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="488" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K488" t="s">
-        <v>1341</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="489" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K489" t="s">
-        <v>1342</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="490" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K490" t="s">
-        <v>1343</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="491" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K491" t="s">
-        <v>1344</v>
+        <v>1328</v>
       </c>
       <c r="L491" t="s">
-        <v>1345</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="492" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K492" t="s">
-        <v>1346</v>
+        <v>1330</v>
       </c>
     </row>
   </sheetData>
@@ -10530,239 +10545,239 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1347</v>
+        <v>1331</v>
       </c>
       <c r="B1" t="s">
-        <v>1348</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1349</v>
+        <v>1333</v>
       </c>
       <c r="B2" t="s">
-        <v>1350</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1351</v>
+        <v>1335</v>
       </c>
       <c r="B3" t="s">
-        <v>1352</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1353</v>
+        <v>1337</v>
       </c>
       <c r="B4" t="s">
-        <v>1354</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>1355</v>
+        <v>1339</v>
       </c>
       <c r="B5" t="s">
-        <v>1356</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>1357</v>
+        <v>1341</v>
       </c>
       <c r="B6" t="s">
-        <v>1358</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>1359</v>
+        <v>1343</v>
       </c>
       <c r="B7" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>1361</v>
+        <v>1345</v>
       </c>
       <c r="B8" t="s">
-        <v>1362</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>1363</v>
+        <v>1347</v>
       </c>
       <c r="B9" t="s">
-        <v>1364</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>1365</v>
+        <v>1349</v>
       </c>
       <c r="B10" t="s">
-        <v>1366</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>1367</v>
+        <v>1351</v>
       </c>
       <c r="B11" t="s">
-        <v>1368</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>1369</v>
+        <v>1353</v>
       </c>
       <c r="B12" t="s">
-        <v>1370</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>1371</v>
+        <v>1355</v>
       </c>
       <c r="B13" t="s">
-        <v>1372</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>1373</v>
+        <v>1357</v>
       </c>
       <c r="B14" t="s">
-        <v>1374</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>1375</v>
+        <v>1359</v>
       </c>
       <c r="B15" t="s">
-        <v>1376</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>1377</v>
+        <v>1361</v>
       </c>
       <c r="B16" t="s">
-        <v>1378</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>1379</v>
+        <v>1363</v>
       </c>
       <c r="B17" t="s">
-        <v>1380</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>1381</v>
+        <v>1365</v>
       </c>
       <c r="B18" t="s">
-        <v>1382</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>1383</v>
+        <v>1367</v>
       </c>
       <c r="B19" t="s">
-        <v>1384</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>1385</v>
+        <v>1369</v>
       </c>
       <c r="B20" t="s">
-        <v>1386</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>1387</v>
+        <v>1371</v>
       </c>
       <c r="B21" t="s">
-        <v>1388</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>1389</v>
+        <v>1373</v>
       </c>
       <c r="B22" t="s">
-        <v>1390</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>1391</v>
+        <v>1375</v>
       </c>
       <c r="B23" t="s">
-        <v>1392</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>1393</v>
+        <v>1377</v>
       </c>
       <c r="B24" t="s">
-        <v>1394</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>1395</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>1396</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>1397</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>1398</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>1399</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>1400</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>1401</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>1402</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>1403</v>
+        <v>1387</v>
       </c>
     </row>
   </sheetData>

--- a/通用表格(2).xlsx
+++ b/通用表格(2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GIT储存库\PLC-mitsubishielectric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF68B13-E0EB-4CF2-8514-613EEF5AA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EFFF31-2B1F-4444-83C5-DF5775FB30BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="1457">
   <si>
     <t>M200</t>
   </si>
@@ -63,9 +63,6 @@
     <t xml:space="preserve"> 1.待机位置</t>
   </si>
   <si>
-    <t>待机位置</t>
-  </si>
-  <si>
     <t>M202</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t xml:space="preserve"> 2.（暂留）</t>
   </si>
   <si>
-    <t>取料工位角度</t>
-  </si>
-  <si>
     <t>M203</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t xml:space="preserve"> 3.（暂留）</t>
   </si>
   <si>
-    <t>中间工位角度</t>
-  </si>
-  <si>
     <t>M204</t>
   </si>
   <si>
@@ -123,9 +114,6 @@
     <t xml:space="preserve"> 4.最终压装缓存位2Y2捞料点</t>
   </si>
   <si>
-    <t>放料工位角度</t>
-  </si>
-  <si>
     <t>M205</t>
   </si>
   <si>
@@ -144,9 +132,6 @@
     <t xml:space="preserve"> 5.最终压装缓存位1Y2捞料点</t>
   </si>
   <si>
-    <t>暂留1角度</t>
-  </si>
-  <si>
     <t>M206</t>
   </si>
   <si>
@@ -169,9 +154,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 6.涂胶工位Y2轴点</t>
-  </si>
-  <si>
-    <t>暂留2角度</t>
   </si>
   <si>
     <t>M207</t>
@@ -4337,10 +4319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 20.存储上下料位Z1轴取料点wait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 11.存储上下料位Y1轴取料点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4375,6 +4353,96 @@
   <si>
     <t xml:space="preserve"> 15.试漏完成存储位Y2轴点取料</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21.存储上下料位Z1轴取料点wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待机位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.取料工位角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.放料工位角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2伺服位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.抽检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.缓存1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.缓存2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.涂胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7。涂胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8。压装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.压装下料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.试漏标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.试漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.试漏重投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.试漏下料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.缓存取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.缓存放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.试漏标准</t>
+  </si>
+  <si>
+    <t>12.试漏</t>
+  </si>
+  <si>
+    <t>13.试漏重投</t>
+  </si>
+  <si>
+    <t>14.试漏下料</t>
+  </si>
+  <si>
+    <t>16.缓存取</t>
+  </si>
+  <si>
+    <t>17.缓存放</t>
   </si>
 </sst>
 </file>
@@ -4500,7 +4568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4557,6 +4625,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4827,8 +4898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E238" workbookViewId="0">
-      <selection activeCell="L150" sqref="L150"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4891,8 +4962,8 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
+      <c r="G2" s="19" t="s">
+        <v>1437</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -4929,20 +5000,20 @@
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
       </c>
       <c r="L3" t="s">
         <v>3</v>
@@ -4956,34 +5027,34 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
       </c>
       <c r="L4" t="s">
         <v>4</v>
@@ -4997,34 +5068,34 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1395</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="K5" t="s">
         <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
       </c>
       <c r="L5" t="s">
         <v>5</v>
@@ -5038,34 +5109,34 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="F6" s="19" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="I6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="K6" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
       </c>
       <c r="L6" t="s">
         <v>6</v>
@@ -5079,34 +5150,34 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>1439</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="K7" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s">
-        <v>43</v>
       </c>
       <c r="L7" t="s">
         <v>7</v>
@@ -5114,34 +5185,34 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="I8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="K8" t="s">
         <v>46</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" t="s">
-        <v>52</v>
       </c>
       <c r="L8" t="s">
         <v>8</v>
@@ -5149,604 +5220,670 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>1442</v>
+      </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="L10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" t="s">
-        <v>66</v>
-      </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>1444</v>
+      </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="L12" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" t="s">
-        <v>79</v>
-      </c>
       <c r="M12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
         <v>80</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="L14" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="M14" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="N14" t="s">
         <v>90</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" t="s">
-        <v>95</v>
-      </c>
-      <c r="N14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>1438</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+        <v>1431</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>1454</v>
+      </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="L16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="M16" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="N16" t="s">
         <v>105</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" t="s">
-        <v>109</v>
-      </c>
-      <c r="M16" t="s">
-        <v>110</v>
-      </c>
-      <c r="N16" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="4" t="s">
-        <v>1439</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+        <v>1432</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1456</v>
+      </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>8</v>
+      </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K18" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M18" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="1">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1">
+        <v>8</v>
+      </c>
       <c r="H19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="1">
+        <v>18</v>
+      </c>
+      <c r="G20" s="1">
+        <v>8</v>
+      </c>
       <c r="H20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1">
+        <v>19</v>
+      </c>
+      <c r="G21" s="1">
+        <v>8</v>
+      </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I21" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K21" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="1">
+        <v>20</v>
+      </c>
+      <c r="G22" s="1">
+        <v>8</v>
+      </c>
       <c r="H22" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I22" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K22" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L22" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M22" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N22" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="1">
+        <v>21</v>
+      </c>
+      <c r="G23" s="1">
+        <v>8</v>
+      </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I23" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="1">
+        <v>22</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8</v>
+      </c>
       <c r="H24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I24" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K24" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L24" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M24" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="1">
+        <v>23</v>
+      </c>
+      <c r="G25" s="1">
+        <v>8</v>
+      </c>
       <c r="H25" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K26" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L26" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M26" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K27" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K28" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L28" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M28" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K29" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="4" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K30" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L30" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M30" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="4" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5754,13 +5891,13 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I31" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K31" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
@@ -5772,27 +5909,27 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I32" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K32" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L32" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H33" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I33" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K33" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
@@ -5804,16 +5941,16 @@
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
       <c r="H34" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I34" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K34" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L34" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
@@ -5833,13 +5970,13 @@
         <v>6</v>
       </c>
       <c r="H35" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I35" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K35" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
@@ -5859,414 +5996,414 @@
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I36" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K36" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L36" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="H37" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I37" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K37" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H38" t="s">
+        <v>220</v>
+      </c>
+      <c r="I38" t="s">
+        <v>213</v>
+      </c>
+      <c r="K38" t="s">
         <v>221</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="L38" t="s">
         <v>222</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="H38" t="s">
-        <v>226</v>
-      </c>
-      <c r="I38" t="s">
-        <v>219</v>
-      </c>
-      <c r="K38" t="s">
-        <v>227</v>
-      </c>
-      <c r="L38" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H39" t="s">
+        <v>228</v>
+      </c>
+      <c r="K39" t="s">
         <v>229</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H39" t="s">
-        <v>234</v>
-      </c>
-      <c r="K39" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="H40" t="s">
+        <v>235</v>
+      </c>
+      <c r="K40" t="s">
         <v>236</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="H40" t="s">
-        <v>241</v>
-      </c>
-      <c r="K40" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G41" t="s">
+        <v>242</v>
+      </c>
+      <c r="H41" t="s">
         <v>243</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="K41" t="s">
         <v>244</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G41" t="s">
-        <v>248</v>
-      </c>
-      <c r="H41" t="s">
-        <v>249</v>
-      </c>
-      <c r="K41" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H42" t="s">
         <v>251</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="K42" t="s">
         <v>252</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="H42" t="s">
-        <v>257</v>
-      </c>
-      <c r="K42" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G43" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H43" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K43" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H44" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K44" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G45" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H45" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K45" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H46" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K46" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G47" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H47" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K47" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H48" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K48" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G49" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H49" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H50" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K50" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="4" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G51" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H51" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I51" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K51" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="4" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H52" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I52" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K52" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L52" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M52" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="N52" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
@@ -6276,42 +6413,42 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G53" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H53" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="I53" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K53" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F54" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H54" t="s">
+        <v>313</v>
+      </c>
+      <c r="I54" t="s">
+        <v>314</v>
+      </c>
+      <c r="K54" t="s">
+        <v>315</v>
+      </c>
+      <c r="L54" t="s">
+        <v>316</v>
+      </c>
+      <c r="M54" t="s">
+        <v>317</v>
+      </c>
+      <c r="N54" t="s">
         <v>318</v>
-      </c>
-      <c r="H54" t="s">
-        <v>319</v>
-      </c>
-      <c r="I54" t="s">
-        <v>320</v>
-      </c>
-      <c r="K54" t="s">
-        <v>321</v>
-      </c>
-      <c r="L54" t="s">
-        <v>322</v>
-      </c>
-      <c r="M54" t="s">
-        <v>323</v>
-      </c>
-      <c r="N54" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
@@ -6323,16 +6460,16 @@
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
       <c r="F55" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H55" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I55" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K55" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
@@ -6352,25 +6489,25 @@
         <v>6</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H56" t="s">
+        <v>324</v>
+      </c>
+      <c r="I56" t="s">
+        <v>325</v>
+      </c>
+      <c r="K56" t="s">
+        <v>326</v>
+      </c>
+      <c r="L56" t="s">
+        <v>327</v>
+      </c>
+      <c r="M56" t="s">
+        <v>328</v>
+      </c>
+      <c r="N56" t="s">
         <v>329</v>
-      </c>
-      <c r="H56" t="s">
-        <v>330</v>
-      </c>
-      <c r="I56" t="s">
-        <v>331</v>
-      </c>
-      <c r="K56" t="s">
-        <v>332</v>
-      </c>
-      <c r="L56" t="s">
-        <v>333</v>
-      </c>
-      <c r="M56" t="s">
-        <v>334</v>
-      </c>
-      <c r="N56" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
@@ -6390,4132 +6527,4132 @@
         <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H57" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I57" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K57" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H58" t="s">
+        <v>338</v>
+      </c>
+      <c r="I58" t="s">
+        <v>339</v>
+      </c>
+      <c r="K58" t="s">
         <v>340</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="L58" t="s">
         <v>341</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="D58" s="7" t="s">
+      <c r="M58" t="s">
         <v>342</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="N58" t="s">
         <v>343</v>
-      </c>
-      <c r="H58" t="s">
-        <v>344</v>
-      </c>
-      <c r="I58" t="s">
-        <v>345</v>
-      </c>
-      <c r="K58" t="s">
-        <v>346</v>
-      </c>
-      <c r="L58" t="s">
-        <v>347</v>
-      </c>
-      <c r="M58" t="s">
-        <v>348</v>
-      </c>
-      <c r="N58" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G59" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H59" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="I59" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K59" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H60" t="s">
+        <v>354</v>
+      </c>
+      <c r="I60" t="s">
         <v>355</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="K60" t="s">
         <v>356</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D60" s="10" t="s">
+      <c r="L60" t="s">
         <v>357</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="M60" t="s">
         <v>358</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="N60" t="s">
         <v>359</v>
-      </c>
-      <c r="H60" t="s">
-        <v>360</v>
-      </c>
-      <c r="I60" t="s">
-        <v>361</v>
-      </c>
-      <c r="K60" t="s">
-        <v>362</v>
-      </c>
-      <c r="L60" t="s">
-        <v>363</v>
-      </c>
-      <c r="M60" t="s">
-        <v>364</v>
-      </c>
-      <c r="N60" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G61" t="s">
+        <v>365</v>
+      </c>
+      <c r="H61" t="s">
         <v>366</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="I61" t="s">
         <v>367</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D61" s="10" t="s">
+      <c r="K61" t="s">
         <v>368</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="G61" t="s">
-        <v>371</v>
-      </c>
-      <c r="H61" t="s">
-        <v>372</v>
-      </c>
-      <c r="I61" t="s">
-        <v>373</v>
-      </c>
-      <c r="K61" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H62" t="s">
         <v>375</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="I62" t="s">
         <v>376</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="K62" t="s">
         <v>377</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="L62" t="s">
         <v>378</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="M62" t="s">
         <v>379</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="N62" t="s">
         <v>380</v>
-      </c>
-      <c r="H62" t="s">
-        <v>381</v>
-      </c>
-      <c r="I62" t="s">
-        <v>382</v>
-      </c>
-      <c r="K62" t="s">
-        <v>383</v>
-      </c>
-      <c r="L62" t="s">
-        <v>384</v>
-      </c>
-      <c r="M62" t="s">
-        <v>385</v>
-      </c>
-      <c r="N62" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G63" t="s">
         <v>387</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="H63" t="s">
         <v>388</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="I63" t="s">
         <v>389</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="K63" t="s">
         <v>390</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="G63" t="s">
-        <v>393</v>
-      </c>
-      <c r="H63" t="s">
-        <v>394</v>
-      </c>
-      <c r="I63" t="s">
-        <v>395</v>
-      </c>
-      <c r="K63" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="6" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H64" t="s">
+        <v>395</v>
+      </c>
+      <c r="I64" t="s">
+        <v>396</v>
+      </c>
+      <c r="K64" t="s">
         <v>397</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="L64" t="s">
         <v>398</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>1405</v>
-      </c>
-      <c r="E64" s="6" t="s">
+      <c r="M64" t="s">
         <v>399</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="N64" t="s">
         <v>400</v>
-      </c>
-      <c r="H64" t="s">
-        <v>401</v>
-      </c>
-      <c r="I64" t="s">
-        <v>402</v>
-      </c>
-      <c r="K64" t="s">
-        <v>403</v>
-      </c>
-      <c r="L64" t="s">
-        <v>404</v>
-      </c>
-      <c r="M64" t="s">
-        <v>405</v>
-      </c>
-      <c r="N64" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="6" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="B65" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G65" t="s">
+        <v>405</v>
+      </c>
+      <c r="H65" t="s">
+        <v>406</v>
+      </c>
+      <c r="I65" t="s">
         <v>407</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="K65" t="s">
         <v>408</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="G65" t="s">
-        <v>411</v>
-      </c>
-      <c r="H65" t="s">
-        <v>412</v>
-      </c>
-      <c r="I65" t="s">
-        <v>413</v>
-      </c>
-      <c r="K65" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H66" t="s">
         <v>415</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="I66" t="s">
         <v>416</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="K66" t="s">
         <v>417</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="L66" t="s">
         <v>418</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="M66" t="s">
         <v>419</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H66" t="s">
-        <v>421</v>
-      </c>
-      <c r="I66" t="s">
-        <v>422</v>
-      </c>
-      <c r="K66" t="s">
-        <v>423</v>
-      </c>
-      <c r="L66" t="s">
-        <v>424</v>
-      </c>
-      <c r="M66" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="6" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G67" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H67" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I67" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="K67" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H68" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="I68" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K68" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L68" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M68" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="6" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="2" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G69" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H69" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="I69" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K69" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="6" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H70" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I70" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K70" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L70" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M70" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G71" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H71" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="I71" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="K71" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="H72" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="K72" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L72" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G73" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H73" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="K73" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="H74" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K74" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L74" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75" s="6" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="H75" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="K75" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="H76" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="K76" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="L76" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="H77" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="K77" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H78" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="K78" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="L78" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H79" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="K79" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H80" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="K80" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="81" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F81" s="3"/>
       <c r="H81" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="I81" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="K81" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="82" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F82" s="3"/>
       <c r="H82" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="I82" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="K82" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="83" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F83" s="3"/>
       <c r="H83" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="I83" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="K83" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="84" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F84" s="3"/>
       <c r="H84" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="I84" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="K84" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F85" s="3"/>
       <c r="H85" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="I85" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="K85" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="86" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F86" s="3"/>
       <c r="H86" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I86" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="K86" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="87" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F87" s="3"/>
       <c r="H87" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="I87" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="K87" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="88" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H88" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="I88" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="K88" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="89" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H89" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="I89" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="K89" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H90" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I90" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K90" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="91" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H91" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="I91" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="K91" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="92" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H92" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="I92" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="K92" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="L92" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M92" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="N92" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="93" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H93" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="I93" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="K93" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="94" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H94" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="I94" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="K94" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L94" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="M94" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="N94" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="95" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H95" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="I95" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="K95" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="96" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H96" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="I96" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="K96" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="L96" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="M96" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="N96" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="97" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F97" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G97" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H97" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="I97" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="K97" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="98" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F98" t="s">
+        <v>552</v>
+      </c>
+      <c r="H98" t="s">
+        <v>553</v>
+      </c>
+      <c r="I98" t="s">
+        <v>554</v>
+      </c>
+      <c r="K98" t="s">
+        <v>555</v>
+      </c>
+      <c r="L98" t="s">
+        <v>556</v>
+      </c>
+      <c r="M98" t="s">
+        <v>557</v>
+      </c>
+      <c r="N98" t="s">
         <v>558</v>
-      </c>
-      <c r="H98" t="s">
-        <v>559</v>
-      </c>
-      <c r="I98" t="s">
-        <v>560</v>
-      </c>
-      <c r="K98" t="s">
-        <v>561</v>
-      </c>
-      <c r="L98" t="s">
-        <v>562</v>
-      </c>
-      <c r="M98" t="s">
-        <v>563</v>
-      </c>
-      <c r="N98" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="99" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F99" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="H99" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I99" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="K99" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="100" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F100" t="s">
+        <v>563</v>
+      </c>
+      <c r="H100" t="s">
+        <v>564</v>
+      </c>
+      <c r="I100" t="s">
+        <v>565</v>
+      </c>
+      <c r="K100" t="s">
+        <v>566</v>
+      </c>
+      <c r="L100" t="s">
+        <v>567</v>
+      </c>
+      <c r="M100" t="s">
+        <v>568</v>
+      </c>
+      <c r="N100" t="s">
         <v>569</v>
-      </c>
-      <c r="H100" t="s">
-        <v>570</v>
-      </c>
-      <c r="I100" t="s">
-        <v>571</v>
-      </c>
-      <c r="K100" t="s">
-        <v>572</v>
-      </c>
-      <c r="L100" t="s">
-        <v>573</v>
-      </c>
-      <c r="M100" t="s">
-        <v>574</v>
-      </c>
-      <c r="N100" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="101" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F101" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H101" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="I101" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="K101" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F102" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="H102" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="K102" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="L102" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="M102" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="N102" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F103" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="H103" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="K103" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F104" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="H104" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="K104" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="L104" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="M104" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="N104" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="105" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F105" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="H105" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="K105" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="106" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F106" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="H106" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="K106" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="L106" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="M106" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="N106" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="107" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F107" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="H107" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="K107" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="108" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F108" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H108" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="K108" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="L108" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="M108" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="N108" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="109" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F109" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H109" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="K109" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="110" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F110" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="H110" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="K110" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="L110" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="M110" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="N110" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="111" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F111" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="H111" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="I111" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="K111" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="112" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F112" t="s">
+        <v>620</v>
+      </c>
+      <c r="H112" t="s">
+        <v>621</v>
+      </c>
+      <c r="I112" t="s">
+        <v>622</v>
+      </c>
+      <c r="K112" t="s">
+        <v>623</v>
+      </c>
+      <c r="L112" t="s">
+        <v>624</v>
+      </c>
+      <c r="M112" t="s">
+        <v>625</v>
+      </c>
+      <c r="N112" t="s">
         <v>626</v>
-      </c>
-      <c r="H112" t="s">
-        <v>627</v>
-      </c>
-      <c r="I112" t="s">
-        <v>628</v>
-      </c>
-      <c r="K112" t="s">
-        <v>629</v>
-      </c>
-      <c r="L112" t="s">
-        <v>630</v>
-      </c>
-      <c r="M112" t="s">
-        <v>631</v>
-      </c>
-      <c r="N112" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="113" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F113" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H113" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="I113" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="K113" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="114" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F114" t="s">
+        <v>631</v>
+      </c>
+      <c r="H114" t="s">
+        <v>632</v>
+      </c>
+      <c r="I114" t="s">
+        <v>633</v>
+      </c>
+      <c r="K114" t="s">
+        <v>634</v>
+      </c>
+      <c r="L114" t="s">
+        <v>635</v>
+      </c>
+      <c r="M114" t="s">
+        <v>636</v>
+      </c>
+      <c r="N114" t="s">
         <v>637</v>
-      </c>
-      <c r="H114" t="s">
-        <v>638</v>
-      </c>
-      <c r="I114" t="s">
-        <v>639</v>
-      </c>
-      <c r="K114" t="s">
-        <v>640</v>
-      </c>
-      <c r="L114" t="s">
-        <v>641</v>
-      </c>
-      <c r="M114" t="s">
-        <v>642</v>
-      </c>
-      <c r="N114" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="115" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F115" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="H115" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="I115" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="K115" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="116" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F116" t="s">
+        <v>642</v>
+      </c>
+      <c r="H116" t="s">
+        <v>643</v>
+      </c>
+      <c r="I116" t="s">
+        <v>644</v>
+      </c>
+      <c r="K116" t="s">
+        <v>645</v>
+      </c>
+      <c r="L116" t="s">
+        <v>646</v>
+      </c>
+      <c r="M116" t="s">
+        <v>647</v>
+      </c>
+      <c r="N116" t="s">
         <v>648</v>
-      </c>
-      <c r="H116" t="s">
-        <v>649</v>
-      </c>
-      <c r="I116" t="s">
-        <v>650</v>
-      </c>
-      <c r="K116" t="s">
-        <v>651</v>
-      </c>
-      <c r="L116" t="s">
-        <v>652</v>
-      </c>
-      <c r="M116" t="s">
-        <v>653</v>
-      </c>
-      <c r="N116" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="117" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F117" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="H117" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I117" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="K117" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="118" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F118" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="H118" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="K118" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="L118" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="M118" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="N118" s="11" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="119" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H119" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="K119" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="120" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H120" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="K120" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="L120" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="M120" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="121" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H121" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="K121" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="122" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H122" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="K122" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="L122" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="M122" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="123" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H123" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="K123" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="124" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H124" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="K124" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="L124" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="M124" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="125" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H125" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="K125" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="126" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H126" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="K126" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="L126" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="M126" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="127" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H127" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="K127" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="128" spans="6:14" x14ac:dyDescent="0.15">
       <c r="H128" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="K128" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="L128" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="M128" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="129" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H129" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="K129" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="130" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H130" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="K130" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="L130" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="131" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H131" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="I131" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="K131" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="132" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H132" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="I132" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="K132" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="L132" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="133" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H133" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="I133" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="K133" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="134" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H134" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="I134" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="K134" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="L134" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="135" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H135" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="I135" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="K135" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="136" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H136" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="I136" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="K136" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="L136" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="137" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H137" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I137" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="K137" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="138" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H138" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="K138" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="L138" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="139" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H139" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="K139" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="140" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H140" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="K140" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="L140" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="141" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H141" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="I141" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="K141" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="142" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H142" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I142" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="K142" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="L142" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="143" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H143" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="I143" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="K143" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="144" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H144" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="I144" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="K144" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="L144" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="145" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H145" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="I145" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="K145" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="146" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H146" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="I146" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="K146" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="147" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H147" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="I147" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="K147" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="148" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H148" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="K148" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="149" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H149" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="K149" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="150" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H150" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="K150" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="151" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H151" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="I151" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="K151" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="152" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H152" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="I152" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="K152" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="L152" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="M152" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="N152" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="153" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H153" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="I153" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="K153" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="154" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H154" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="I154" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="K154" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="L154" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="M154" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="N154" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="155" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H155" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="I155" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="K155" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="156" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H156" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="I156" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="K156" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="L156" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="M156" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="N156" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="157" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H157" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="I157" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="K157" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="158" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H158" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="K158" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="L158" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="M158" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="N158" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="159" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H159" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="K159" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="160" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H160" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="K160" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="L160" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="M160" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="N160" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="161" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H161" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="I161" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="K161" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="162" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H162" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="I162" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="K162" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="L162" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="M162" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="N162" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="163" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H163" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="I163" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="K163" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="164" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H164" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="I164" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="K164" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="L164" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="M164" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="N164" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="165" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H165" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="I165" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="K165" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="166" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H166" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="I166" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="K166" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="L166" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="M166" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="N166" s="11" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="167" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H167" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="I167" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="K167" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="168" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H168" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="K168" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="L168" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="M168" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="169" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H169" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="K169" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="170" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H170" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="K170" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="L170" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="M170" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="171" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H171" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="K171" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="172" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H172" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K172" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="L172" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="173" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H173" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="K173" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="174" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H174" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="K174" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="L174" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="175" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H175" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="K175" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="176" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H176" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="K176" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="L176" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="177" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H177" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="K177" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="178" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H178" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="K178" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="L178" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="179" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H179" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="K179" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="180" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H180" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="K180" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="181" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H181" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="K181" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="182" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H182" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="K182" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="183" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H183" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="K183" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
     </row>
     <row r="184" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H184" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="K184" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="185" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H185" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="K185" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="186" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H186" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="K186" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="187" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H187" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="K187" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="188" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H188" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="K188" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="189" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H189" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="K189" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="190" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H190" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="K190" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="191" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H191" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="K191" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="192" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H192" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="K192" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="L192" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="M192" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="N192" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="193" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H193" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="K193" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="194" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H194" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="K194" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="L194" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="M194" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="N194" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="195" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H195" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="K195" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="196" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H196" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="K196" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="L196" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="M196" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="N196" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="197" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H197" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="K197" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="198" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H198" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="K198" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="L198" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="M198" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="N198" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="199" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H199" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="K199" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="200" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H200" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="K200" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="L200" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="M200" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="N200" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="201" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H201" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="K201" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="202" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H202" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="K202" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="L202" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="M202" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="N202" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="203" spans="8:14" x14ac:dyDescent="0.15">
       <c r="K203" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="204" spans="8:14" x14ac:dyDescent="0.15">
       <c r="K204" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="L204" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="M204" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="N204" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="205" spans="8:14" x14ac:dyDescent="0.15">
       <c r="K205" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="206" spans="8:14" x14ac:dyDescent="0.15">
       <c r="K206" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="L206" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="M206" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="207" spans="8:14" x14ac:dyDescent="0.15">
       <c r="K207" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="208" spans="8:14" x14ac:dyDescent="0.15">
       <c r="K208" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="L208" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="M208" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="209" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K209" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="210" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K210" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="L210" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="M210" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="211" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K211" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="212" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K212" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="L212" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="213" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K213" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
     <row r="214" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K214" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="L214" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
     </row>
     <row r="215" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K215" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="216" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K216" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="L216" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="217" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K217" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="218" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K218" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="L218" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="219" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K219" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="220" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K220" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="221" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K221" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="222" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K222" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="223" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K223" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="224" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K224" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="225" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K225" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="226" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K226" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="227" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K227" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="228" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K228" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="229" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K229" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="230" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K230" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="231" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K231" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="232" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K232" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="L232" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
     </row>
     <row r="233" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K233" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="234" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K234" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="L234" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="235" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K235" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="236" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K236" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="L236" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
     </row>
     <row r="237" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K237" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
     </row>
     <row r="238" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K238" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="L238" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="239" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K239" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="240" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K240" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="L240" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="241" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K241" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="242" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K242" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="L242" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
     <row r="243" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K243" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="244" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K244" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
     </row>
     <row r="245" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K245" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="246" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K246" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="247" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K247" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="248" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K248" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="249" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K249" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="250" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K250" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
     </row>
     <row r="251" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K251" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
     <row r="252" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K252" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="L252" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="253" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K253" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
     </row>
     <row r="254" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K254" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="L254" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="255" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K255" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
     </row>
     <row r="256" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K256" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="L256" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="257" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K257" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
     </row>
     <row r="258" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K258" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="L258" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
     </row>
     <row r="259" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K259" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
     </row>
     <row r="260" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K260" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="L260" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
     </row>
     <row r="261" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K261" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
     </row>
     <row r="262" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K262" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="L262" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="263" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K263" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="264" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K264" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="265" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K265" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="266" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K266" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="267" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K267" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="268" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K268" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="269" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K269" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="270" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K270" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="271" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K271" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="L271" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="272" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K272" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="L272" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="M272" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="N272" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="273" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K273" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="274" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K274" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="L274" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="M274" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="N274" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="275" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K275" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="276" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K276" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="L276" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="M276" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="N276" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="277" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K277" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="278" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K278" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="L278" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="M278" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="N278" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="279" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K279" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="280" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K280" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="L280" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="M280" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="N280" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="281" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K281" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="282" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K282" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="283" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K283" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="284" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K284" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="285" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K285" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="286" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K286" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="287" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K287" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="288" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K288" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="289" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K289" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="290" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K290" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="291" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K291" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="292" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K292" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="L292" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="M292" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="N292" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="293" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K293" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="294" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K294" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="L294" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="M294" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="N294" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="295" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K295" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="296" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K296" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="L296" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="M296" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="N296" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="297" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K297" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="298" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K298" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="L298" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="M298" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="N298" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="299" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K299" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="300" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K300" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="L300" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="M300" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="N300" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="301" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K301" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="302" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K302" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="303" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K303" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="304" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K304" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="305" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K305" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="306" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K306" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="307" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K307" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="308" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K308" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="309" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K309" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="310" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K310" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="311" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K311" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="312" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K312" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="L312" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="M312" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="N312" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="313" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K313" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="314" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K314" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="L314" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="M314" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="N314" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="315" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K315" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="316" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K316" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="L316" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="M316" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="N316" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="317" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K317" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="318" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K318" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="L318" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="M318" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="N318" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="319" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K319" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="320" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K320" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="L320" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="M320" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="N320" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="321" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K321" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="322" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K322" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="323" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K323" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="324" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K324" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="325" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K325" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="326" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K326" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="327" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K327" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="328" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K328" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="329" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K329" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="330" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K330" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="331" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K331" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="332" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K332" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="L332" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="M332" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="N332" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="333" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K333" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="334" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K334" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="L334" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="M334" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="N334" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="335" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K335" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="336" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K336" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="L336" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="M336" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="N336" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="337" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K337" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="338" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K338" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="L338" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="M338" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="N338" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="339" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K339" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="340" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K340" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="L340" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="M340" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="N340" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="341" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K341" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="342" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K342" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="343" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K343" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="344" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K344" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="345" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K345" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="346" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K346" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="347" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K347" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="348" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K348" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="349" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K349" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="350" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K350" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="351" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K351" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="352" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K352" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="L352" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="M352" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="N352" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="353" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K353" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="354" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K354" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="L354" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="M354" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="N354" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="355" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K355" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="356" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K356" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="L356" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="M356" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="N356" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="357" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K357" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="358" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K358" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="L358" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="M358" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="N358" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="359" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K359" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="360" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K360" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="L360" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="M360" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="N360" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="361" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K361" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="362" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K362" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="363" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K363" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="364" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K364" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="365" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K365" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="366" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K366" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="367" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K367" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="368" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K368" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="369" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K369" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="370" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K370" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="371" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K371" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="372" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K372" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="L372" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="373" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K373" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="374" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K374" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="L374" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="375" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K375" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="376" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K376" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="L376" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="377" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K377" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="378" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K378" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="L378" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="379" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K379" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="380" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K380" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="L380" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="381" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K381" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="382" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K382" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="383" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K383" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="384" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K384" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="385" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K385" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="386" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K386" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="387" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K387" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="388" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K388" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="389" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K389" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="390" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K390" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="391" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K391" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="392" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K392" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="L392" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="393" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K393" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="394" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K394" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="L394" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="395" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K395" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="396" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K396" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="L396" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="397" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K397" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="398" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K398" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="L398" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="399" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K399" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="400" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K400" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="L400" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="401" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K401" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="402" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K402" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="403" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K403" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="404" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K404" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="405" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K405" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="406" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K406" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="407" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K407" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="408" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K408" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="409" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K409" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="410" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K410" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="411" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K411" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="412" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K412" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="413" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K413" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="414" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K414" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="L414" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="M414" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="N414" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="415" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K415" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="416" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K416" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="L416" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="M416" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="N416" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="417" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K417" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="418" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K418" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="L418" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="M418" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="N418" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="419" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K419" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="420" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K420" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="L420" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="M420" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="N420" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="421" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K421" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="422" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K422" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="L422" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="M422" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="N422" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="423" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K423" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="424" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K424" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="L424" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="M424" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="N424" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="425" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K425" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="426" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K426" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="L426" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="M426" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="N426" s="11" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="427" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K427" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="428" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K428" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="L428" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="M428" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="N428" s="11" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="429" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K429" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="430" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K430" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="L430" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="M430" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="431" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K431" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="432" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K432" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="L432" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="433" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K433" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="434" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K434" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="L434" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="435" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K435" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="436" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K436" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="L436" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="437" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K437" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="438" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K438" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="L438" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="439" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K439" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="440" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K440" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="441" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K441" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="442" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K442" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="443" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K443" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="444" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K444" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="445" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K445" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="446" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K446" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="447" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K447" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="448" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K448" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="449" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K449" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="450" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K450" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="451" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K451" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="452" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K452" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="453" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K453" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="454" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K454" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="L454" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="M454" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="N454" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="455" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K455" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="456" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K456" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="L456" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="M456" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="N456" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="457" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K457" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="458" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K458" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="L458" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="M458" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="N458" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="459" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K459" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="460" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K460" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="L460" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="M460" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="N460" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="461" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K461" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="462" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K462" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="L462" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="M462" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="N462" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="463" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K463" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="464" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K464" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="L464" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="M464" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="N464" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="465" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K465" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="466" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K466" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="L466" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="M466" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="467" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K467" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="468" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K468" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="L468" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="M468" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="469" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K469" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="470" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K470" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="L470" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="M470" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="471" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K471" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="472" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K472" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="L472" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="473" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K473" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="474" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K474" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="L474" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="475" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K475" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="476" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K476" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="L476" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="477" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K477" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="478" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K478" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="L478" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="479" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K479" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="480" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K480" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="481" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K481" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="482" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K482" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="483" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K483" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="484" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K484" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="485" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K485" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="486" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K486" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="487" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K487" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="488" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K488" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="489" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K489" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="490" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K490" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="491" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K491" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="L491" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="492" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K492" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
     </row>
   </sheetData>
@@ -10545,239 +10682,239 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="B1" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="B2" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="B3" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="B4" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="B5" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="B6" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="B7" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="B8" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="B9" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="B10" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="B11" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="B12" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="B13" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="B14" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="B15" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="B16" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="B17" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="B18" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="B19" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="B20" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="B21" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="B22" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="B23" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="B24" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
     </row>
   </sheetData>

--- a/通用表格(2).xlsx
+++ b/通用表格(2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GIT储存库\PLC-mitsubishielectric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EFFF31-2B1F-4444-83C5-DF5775FB30BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085F960E-6A36-46FA-A308-631B7A716B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="945" yWindow="5010" windowWidth="18045" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4419,30 +4419,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15.缓存取</t>
+    <t>10.试漏标准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16.缓存放</t>
+    <t>11.试漏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11.试漏标准</t>
-  </si>
-  <si>
-    <t>12.试漏</t>
-  </si>
-  <si>
-    <t>13.试漏重投</t>
-  </si>
-  <si>
-    <t>14.试漏下料</t>
-  </si>
-  <si>
-    <t>16.缓存取</t>
-  </si>
-  <si>
-    <t>17.缓存放</t>
+    <t>12.试漏重投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.试漏下料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.缓存取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.缓存放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.缓存取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.缓存放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4614,6 +4620,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4625,9 +4634,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4898,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4913,20 +4919,20 @@
     <col min="8" max="8" width="15.75" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="12" max="12" width="38.125" customWidth="1"/>
-    <col min="13" max="13" width="45.125" customWidth="1"/>
-    <col min="14" max="14" width="39.375" customWidth="1"/>
+    <col min="13" max="13" width="45.125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="39.375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="15">
+      <c r="A1" s="16">
         <v>224</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
       <c r="H1" t="s">
         <v>0</v>
       </c>
@@ -4962,7 +4968,7 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="15" t="s">
         <v>1437</v>
       </c>
       <c r="H2" t="s">
@@ -5000,10 +5006,10 @@
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="15" t="s">
         <v>1434</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="15" t="s">
         <v>1434</v>
       </c>
       <c r="H3" t="s">
@@ -5041,10 +5047,10 @@
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="15" t="s">
         <v>1435</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="15" t="s">
         <v>1435</v>
       </c>
       <c r="H4" t="s">
@@ -5082,10 +5088,10 @@
       <c r="E5" s="6" t="s">
         <v>1389</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="15" t="s">
         <v>1438</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="15" t="s">
         <v>1438</v>
       </c>
       <c r="H5" t="s">
@@ -5123,10 +5129,10 @@
       <c r="E6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="15" t="s">
         <v>1436</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="15" t="s">
         <v>1436</v>
       </c>
       <c r="H6" t="s">
@@ -5164,10 +5170,10 @@
       <c r="E7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="15" t="s">
         <v>1439</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="15" t="s">
         <v>1439</v>
       </c>
       <c r="H7" t="s">
@@ -5199,10 +5205,10 @@
       <c r="E8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="15" t="s">
         <v>1440</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="15" t="s">
         <v>1440</v>
       </c>
       <c r="H8" t="s">
@@ -5234,10 +5240,10 @@
       <c r="E9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="15" t="s">
         <v>1441</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="15" t="s">
         <v>1442</v>
       </c>
       <c r="H9" t="s">
@@ -5263,10 +5269,10 @@
       <c r="E10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="15" t="s">
         <v>1443</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="15" t="s">
         <v>1443</v>
       </c>
       <c r="H10" t="s">
@@ -5301,10 +5307,10 @@
       <c r="E11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="15" t="s">
         <v>1444</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="15" t="s">
         <v>1444</v>
       </c>
       <c r="H11" t="s">
@@ -5330,11 +5336,11 @@
       <c r="E12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="15" t="s">
         <v>1445</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>1451</v>
+      <c r="G12" s="15" t="s">
+        <v>1449</v>
       </c>
       <c r="H12" t="s">
         <v>71</v>
@@ -5368,11 +5374,11 @@
       <c r="E13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="15" t="s">
         <v>1446</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>1452</v>
+      <c r="G13" s="15" t="s">
+        <v>1450</v>
       </c>
       <c r="H13" t="s">
         <v>79</v>
@@ -5397,11 +5403,11 @@
       <c r="E14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="15" t="s">
         <v>1447</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>1453</v>
+      <c r="G14" s="15" t="s">
+        <v>1451</v>
       </c>
       <c r="H14" t="s">
         <v>86</v>
@@ -5435,11 +5441,11 @@
       <c r="E15" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="15" t="s">
         <v>1448</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>1454</v>
+      <c r="G15" s="15" t="s">
+        <v>1452</v>
       </c>
       <c r="H15" t="s">
         <v>94</v>
@@ -5464,11 +5470,11 @@
       <c r="E16" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>1449</v>
-      </c>
-      <c r="G16" s="19" t="s">
+      <c r="F16" s="15" t="s">
         <v>1455</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>1453</v>
       </c>
       <c r="H16" t="s">
         <v>101</v>
@@ -5500,11 +5506,11 @@
       <c r="E17" s="4" t="s">
         <v>1432</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>1450</v>
-      </c>
-      <c r="G17" s="19" t="s">
+      <c r="F17" s="15" t="s">
         <v>1456</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>1454</v>
       </c>
       <c r="H17" t="s">
         <v>109</v>
@@ -5933,13 +5939,13 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="15">
+      <c r="A34" s="16">
         <v>222</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
       <c r="H34" t="s">
         <v>199</v>
       </c>
@@ -6452,13 +6458,13 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A55" s="18">
+      <c r="A55" s="19">
         <v>223</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
       <c r="F55" s="2" t="s">
         <v>319</v>
       </c>

--- a/通用表格(2).xlsx
+++ b/通用表格(2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GIT储存库\PLC-mitsubishielectric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085F960E-6A36-46FA-A308-631B7A716B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48997EF-CE44-4542-96AF-8C91FDAB73CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="945" yWindow="5010" windowWidth="18045" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4904,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="F427" workbookViewId="0">
+      <selection activeCell="N454" sqref="N454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4919,8 +4919,8 @@
     <col min="8" max="8" width="15.75" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="12" max="12" width="38.125" customWidth="1"/>
-    <col min="13" max="13" width="45.125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="39.375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="45.125" customWidth="1"/>
+    <col min="14" max="14" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">

--- a/通用表格(2).xlsx
+++ b/通用表格(2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GIT储存库\PLC-mitsubishielectric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48997EF-CE44-4542-96AF-8C91FDAB73CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2607B2BF-C420-4B9B-AF4F-93AC5E60D9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8325" yWindow="7065" windowWidth="18045" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4904,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F427" workbookViewId="0">
-      <selection activeCell="N454" sqref="N454"/>
+    <sheetView tabSelected="1" topLeftCell="F372" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4919,8 +4919,8 @@
     <col min="8" max="8" width="15.75" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="12" max="12" width="38.125" customWidth="1"/>
-    <col min="13" max="13" width="45.125" customWidth="1"/>
-    <col min="14" max="14" width="39.375" customWidth="1"/>
+    <col min="13" max="13" width="45.125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="39.375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
